--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="195">
   <si>
     <t>##</t>
   </si>
@@ -569,6 +569,36 @@
   </si>
   <si>
     <t>打金系数z</t>
+  </si>
+  <si>
+    <t>Dota.UnitLevelUpConfigBean</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength</t>
+  </si>
+  <si>
+    <t>基础力量</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility</t>
+  </si>
+  <si>
+    <t>基础敏捷</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence</t>
+  </si>
+  <si>
+    <t>基础智力</t>
+  </si>
+  <si>
+    <t>AttachWearables</t>
+  </si>
+  <si>
+    <t>(list#sep=|),string</t>
+  </si>
+  <si>
+    <t>饰品</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1282,6 +1312,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1602,10 +1635,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61:K63"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2700,6 +2733,64 @@
         <v>184</v>
       </c>
     </row>
+    <row r="88" spans="2:11">
+      <c r="B88" t="s">
+        <v>185</v>
+      </c>
+      <c r="H88" t="s">
+        <v>109</v>
+      </c>
+      <c r="I88" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" ht="15.5" spans="8:11">
+      <c r="H89" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="I89" t="s">
+        <v>138</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" ht="15.5" spans="8:11">
+      <c r="H90" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="I90" t="s">
+        <v>138</v>
+      </c>
+      <c r="K90" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" ht="15.5" spans="8:11">
+      <c r="H91" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="I91" t="s">
+        <v>138</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="8:11">
+      <c r="H92" t="s">
+        <v>192</v>
+      </c>
+      <c r="I92" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="K92" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="H1:L1"/>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="199">
   <si>
     <t>##</t>
   </si>
@@ -421,6 +421,12 @@
     <t>Dota.RoundEnemyConfigBean</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
     <t>unitname</t>
   </si>
   <si>
@@ -529,9 +535,6 @@
     <t>spawn_buff</t>
   </si>
   <si>
-    <t>string?</t>
-  </si>
-  <si>
     <t>单位自带buff</t>
   </si>
   <si>
@@ -569,6 +572,15 @@
   </si>
   <si>
     <t>打金系数z</t>
+  </si>
+  <si>
+    <t>Dota.RoundChallengeEnemyConfigBean</t>
+  </si>
+  <si>
+    <t>种怪索引</t>
+  </si>
+  <si>
+    <t>unit_weight</t>
   </si>
   <si>
     <t>Dota.UnitLevelUpConfigBean</t>
@@ -1256,65 +1268,75 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1635,26 +1657,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L92"/>
+  <dimension ref="A1:L119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
+    <col min="2" max="2" width="35.25" customWidth="1"/>
     <col min="3" max="4" width="20.625" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="23.625" customWidth="1"/>
     <col min="10" max="10" width="10.375" customWidth="1"/>
-    <col min="11" max="11" width="19.125" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1675,19 +1697,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I2" t="s">
@@ -1696,7 +1718,7 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="L2" t="s">
@@ -1719,7 +1741,7 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I3" t="s">
@@ -1728,7 +1750,7 @@
       <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1736,24 +1758,24 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="14" t="s">
+      <c r="I4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="8:11">
-      <c r="H5" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="14" t="s">
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1761,24 +1783,24 @@
       <c r="B6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="14" t="s">
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="8:11">
-      <c r="H7" t="s">
+      <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1786,13 +1808,13 @@
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1800,10 +1822,10 @@
       <c r="H9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1811,13 +1833,13 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="I10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1825,70 +1847,70 @@
       <c r="H11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="H12" s="3" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="14" t="s">
+      <c r="I12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="8:11">
-      <c r="H13" t="s">
+      <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="8:11">
-      <c r="H14" t="s">
+      <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="14" t="s">
+      <c r="I14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="8:11">
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="14" t="s">
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="8:11">
-      <c r="H16" t="s">
+      <c r="H16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="15" t="s">
+      <c r="K16" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1896,24 +1918,24 @@
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="15" t="s">
+      <c r="I17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="8:11">
-      <c r="H18" s="6" t="s">
+      <c r="H18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="I18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1921,24 +1943,24 @@
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="14" t="s">
+      <c r="I19" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="8:11">
-      <c r="H20" s="4" t="s">
+      <c r="H20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="14" t="s">
+      <c r="I20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1946,68 +1968,68 @@
       <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="7" t="s">
+      <c r="I21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="8:11">
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="K22" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="8:11">
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="7" t="s">
+      <c r="I23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="8:11">
-      <c r="H24" s="6" t="s">
+      <c r="H24" s="7" t="s">
         <v>70</v>
       </c>
       <c r="I24" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="15" t="s">
+      <c r="K24" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="8:11">
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="7" t="s">
+      <c r="I25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="8:11">
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="7" t="s">
+      <c r="I26" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2015,7 +2037,7 @@
       <c r="H27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K27" s="9" t="s">
@@ -2026,7 +2048,7 @@
       <c r="H28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="6" t="s">
         <v>46</v>
       </c>
       <c r="K28" s="9" t="s">
@@ -2037,7 +2059,7 @@
       <c r="H29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K29" s="9" t="s">
@@ -2045,10 +2067,10 @@
       </c>
     </row>
     <row r="30" spans="8:11">
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" s="6" t="s">
         <v>78</v>
       </c>
       <c r="K30" s="9" t="s">
@@ -2056,10 +2078,10 @@
       </c>
     </row>
     <row r="31" spans="8:11">
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K31" s="9" t="s">
@@ -2067,10 +2089,10 @@
       </c>
     </row>
     <row r="32" spans="8:11">
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="9" t="s">
@@ -2078,21 +2100,21 @@
       </c>
     </row>
     <row r="33" spans="8:11">
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="I33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="34" spans="8:11">
-      <c r="H34" s="7" t="s">
+      <c r="H34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K34" s="9" t="s">
@@ -2100,10 +2122,10 @@
       </c>
     </row>
     <row r="35" spans="8:11">
-      <c r="H35" s="7" t="s">
+      <c r="H35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K35" s="9" t="s">
@@ -2111,10 +2133,10 @@
       </c>
     </row>
     <row r="36" spans="8:11">
-      <c r="H36" s="7" t="s">
+      <c r="H36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="6" t="s">
         <v>51</v>
       </c>
       <c r="K36" s="9" t="s">
@@ -2122,13 +2144,13 @@
       </c>
     </row>
     <row r="37" spans="8:11">
-      <c r="H37" t="s">
+      <c r="H37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="K37" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2136,13 +2158,13 @@
       <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="H38" s="7" t="s">
+      <c r="H38" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="6" t="s">
+      <c r="I38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2150,10 +2172,10 @@
       <c r="H39" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="K39" s="6" t="s">
+      <c r="K39" s="7" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2164,7 +2186,7 @@
       <c r="H40" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K40" s="10" t="s">
@@ -2175,7 +2197,7 @@
       <c r="H41" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="6" t="s">
         <v>46</v>
       </c>
       <c r="K41" s="10" t="s">
@@ -2186,7 +2208,7 @@
       <c r="H42" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K42" s="10" t="s">
@@ -2197,7 +2219,7 @@
       <c r="H43" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K43" s="10" t="s">
@@ -2208,7 +2230,7 @@
       <c r="H44" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K44" s="10" t="s">
@@ -2222,10 +2244,10 @@
       <c r="H45" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="16" t="s">
+      <c r="I45" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="15" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2233,10 +2255,10 @@
       <c r="H46" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="16" t="s">
+      <c r="I46" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="15" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2244,10 +2266,10 @@
       <c r="H47" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="17" t="s">
+      <c r="I47" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="16" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2255,10 +2277,10 @@
       <c r="H48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="17" t="s">
+      <c r="I48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="16" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2266,10 +2288,10 @@
       <c r="H49" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="17" t="s">
+      <c r="I49" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="16" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2277,10 +2299,10 @@
       <c r="H50" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="17" t="s">
+      <c r="I50" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="16" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2291,10 +2313,10 @@
       <c r="H51" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="I51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="17" t="s">
+      <c r="I51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="16" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2302,10 +2324,10 @@
       <c r="H52" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="17" t="s">
+      <c r="I52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="16" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2313,10 +2335,10 @@
       <c r="H53" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="I53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="17" t="s">
+      <c r="I53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="16" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2324,84 +2346,84 @@
       <c r="B54" t="s">
         <v>124</v>
       </c>
-      <c r="H54" s="3" t="s">
+      <c r="H54" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K54" s="14" t="s">
+      <c r="K54" s="9" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="55" spans="8:11">
-      <c r="H55" t="s">
+      <c r="H55" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="14" t="s">
+      <c r="I55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="H56" s="3" t="s">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="H56" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="3" t="s">
+      <c r="I56" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K56" s="14" t="s">
+      <c r="K56" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="57" spans="8:11">
-      <c r="H57" t="s">
+      <c r="H57" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I57" s="3" t="s">
+      <c r="I57" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K57" s="14" t="s">
+      <c r="K57" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="58" spans="8:11">
-      <c r="H58" t="s">
+      <c r="H58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="14" t="s">
+      <c r="I58" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="59" spans="8:11">
-      <c r="H59" s="4" t="s">
+      <c r="H59" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="14" t="s">
+      <c r="I59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="60" spans="8:11">
-      <c r="H60" t="s">
+      <c r="H60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="3" t="s">
+      <c r="I60" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="15" t="s">
+      <c r="K60" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2409,35 +2431,35 @@
       <c r="B61" t="s">
         <v>130</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="8" t="s">
         <v>131</v>
       </c>
       <c r="I61" t="s">
         <v>46</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="8:11">
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="14" t="s">
+      <c r="I62" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="63" spans="8:11">
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K63" s="14" t="s">
+      <c r="K63" s="9" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2446,349 +2468,676 @@
         <v>134</v>
       </c>
       <c r="G64" s="13"/>
-      <c r="H64" s="13" t="s">
+      <c r="H64" s="1" t="s">
         <v>135</v>
       </c>
       <c r="I64" t="s">
         <v>46</v>
       </c>
-      <c r="K64" s="18" t="s">
+      <c r="K64" s="17" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65" spans="7:11">
-      <c r="G65" s="19"/>
-      <c r="H65" s="19" t="s">
+      <c r="G65" s="13"/>
+      <c r="H65" s="17" t="s">
         <v>137</v>
       </c>
       <c r="I65" t="s">
+        <v>46</v>
+      </c>
+      <c r="K65" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="K65" s="19" t="s">
+    </row>
+    <row r="66" spans="7:11">
+      <c r="G66" s="18"/>
+      <c r="H66" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="19"/>
-      <c r="H66" s="19" t="s">
-        <v>140</v>
-      </c>
       <c r="I66" t="s">
-        <v>138</v>
-      </c>
-      <c r="K66" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K66" s="9" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="67" spans="6:11">
-      <c r="F67" s="13"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19" t="s">
+    <row r="67" spans="7:11">
+      <c r="G67" s="18"/>
+      <c r="H67" s="9" t="s">
         <v>142</v>
       </c>
       <c r="I67" t="s">
-        <v>138</v>
-      </c>
-      <c r="K67" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K67" s="9" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="7:11">
-      <c r="G68" s="19"/>
-      <c r="H68" s="19" t="s">
+    <row r="68" spans="6:11">
+      <c r="F68" s="13"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="9" t="s">
         <v>144</v>
       </c>
       <c r="I68" t="s">
-        <v>138</v>
-      </c>
-      <c r="K68" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K68" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="69" spans="7:11">
-      <c r="G69" s="19"/>
-      <c r="H69" s="19" t="s">
+      <c r="G69" s="18"/>
+      <c r="H69" s="9" t="s">
         <v>146</v>
       </c>
       <c r="I69" t="s">
-        <v>138</v>
-      </c>
-      <c r="K69" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K69" s="9" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="70" spans="7:11">
-      <c r="G70" s="19"/>
-      <c r="H70" s="19" t="s">
+      <c r="G70" s="18"/>
+      <c r="H70" s="9" t="s">
         <v>148</v>
       </c>
       <c r="I70" t="s">
-        <v>138</v>
-      </c>
-      <c r="K70" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K70" s="9" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="71" spans="7:11">
-      <c r="G71" s="19"/>
-      <c r="H71" s="19" t="s">
+      <c r="G71" s="18"/>
+      <c r="H71" s="9" t="s">
         <v>150</v>
       </c>
       <c r="I71" t="s">
-        <v>138</v>
-      </c>
-      <c r="K71" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K71" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="72" spans="7:11">
-      <c r="G72" s="19"/>
-      <c r="H72" s="19" t="s">
+      <c r="G72" s="18"/>
+      <c r="H72" s="9" t="s">
         <v>152</v>
       </c>
       <c r="I72" t="s">
-        <v>138</v>
-      </c>
-      <c r="K72" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K72" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" spans="7:11">
-      <c r="G73" s="13"/>
-      <c r="H73" s="13" t="s">
+      <c r="G73" s="18"/>
+      <c r="H73" s="9" t="s">
         <v>154</v>
       </c>
       <c r="I73" t="s">
-        <v>138</v>
-      </c>
-      <c r="K73" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K73" s="21" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="74" spans="7:11">
       <c r="G74" s="13"/>
-      <c r="H74" s="13" t="s">
+      <c r="H74" s="17" t="s">
         <v>156</v>
       </c>
       <c r="I74" t="s">
-        <v>138</v>
-      </c>
-      <c r="K74" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K74" s="21" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="75" spans="7:11">
       <c r="G75" s="13"/>
-      <c r="H75" s="13" t="s">
+      <c r="H75" s="17" t="s">
         <v>158</v>
       </c>
       <c r="I75" t="s">
-        <v>138</v>
-      </c>
-      <c r="K75" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K75" s="21" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="76" spans="7:11">
       <c r="G76" s="13"/>
-      <c r="H76" s="13" t="s">
+      <c r="H76" s="17" t="s">
         <v>160</v>
       </c>
       <c r="I76" t="s">
-        <v>138</v>
-      </c>
-      <c r="K76" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K76" s="21" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="7:11">
       <c r="G77" s="13"/>
-      <c r="H77" s="13" t="s">
+      <c r="H77" s="17" t="s">
         <v>162</v>
       </c>
       <c r="I77" t="s">
-        <v>138</v>
-      </c>
-      <c r="K77" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K77" s="21" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="7:11">
       <c r="G78" s="13"/>
-      <c r="H78" s="13" t="s">
+      <c r="H78" s="17" t="s">
         <v>164</v>
       </c>
       <c r="I78" t="s">
-        <v>138</v>
-      </c>
-      <c r="K78" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K78" s="21" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="79" spans="7:11">
       <c r="G79" s="13"/>
-      <c r="H79" s="13" t="s">
+      <c r="H79" s="17" t="s">
         <v>166</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
-      </c>
-      <c r="K79" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K79" s="21" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="80" spans="7:11">
       <c r="G80" s="13"/>
-      <c r="H80" s="13" t="s">
+      <c r="H80" s="17" t="s">
         <v>168</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" s="21" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="81" spans="7:11">
       <c r="G81" s="13"/>
-      <c r="H81" s="13" t="s">
+      <c r="H81" s="17" t="s">
         <v>170</v>
       </c>
       <c r="I81" t="s">
+        <v>46</v>
+      </c>
+      <c r="K81" s="21" t="s">
         <v>171</v>
-      </c>
-      <c r="K81" s="18" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="82" spans="7:11">
       <c r="G82" s="13"/>
-      <c r="H82" s="13" t="s">
+      <c r="H82" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I82" t="s">
+        <v>46</v>
+      </c>
+      <c r="K82" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="I82" t="s">
-        <v>138</v>
-      </c>
-      <c r="K82" s="18" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="13"/>
-      <c r="H83" s="13" t="s">
+      <c r="H83" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I83" t="s">
+        <v>140</v>
+      </c>
+      <c r="K83" s="21" t="s">
         <v>175</v>
-      </c>
-      <c r="I83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" s="18" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="13"/>
-      <c r="H84" s="13" t="s">
+      <c r="H84" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="I84" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" s="18" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="85" spans="7:11">
       <c r="G85" s="13"/>
-      <c r="H85" s="13" t="s">
+      <c r="H85" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" s="21" t="s">
         <v>179</v>
-      </c>
-      <c r="I85" t="s">
-        <v>138</v>
-      </c>
-      <c r="K85" s="18" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="13"/>
-      <c r="H86" s="13" t="s">
+      <c r="H86" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I86" t="s">
+        <v>140</v>
+      </c>
+      <c r="K86" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="I86" t="s">
-        <v>138</v>
-      </c>
-      <c r="K86" s="18" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="87" spans="7:11">
       <c r="G87" s="13"/>
-      <c r="H87" s="13" t="s">
+      <c r="H87" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I87" t="s">
+        <v>140</v>
+      </c>
+      <c r="K87" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="I87" t="s">
+    </row>
+    <row r="88" spans="7:11">
+      <c r="G88" s="13"/>
+      <c r="H88" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I88" t="s">
+        <v>140</v>
+      </c>
+      <c r="K88" s="21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11">
+      <c r="B89" t="s">
+        <v>186</v>
+      </c>
+      <c r="G89" s="13"/>
+      <c r="H89" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I89" t="s">
+        <v>46</v>
+      </c>
+      <c r="K89" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="7:11">
+      <c r="G90" s="13"/>
+      <c r="H90" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I90" t="s">
+        <v>46</v>
+      </c>
+      <c r="K90" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="K87" s="18" t="s">
+    </row>
+    <row r="91" spans="7:11">
+      <c r="G91" s="13"/>
+      <c r="H91" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="92" spans="7:11">
+      <c r="G92" s="13"/>
+      <c r="H92" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="I92" t="s">
+        <v>140</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="7:11">
+      <c r="G93" s="13"/>
+      <c r="H93" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="I93" t="s">
+        <v>140</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="7:11">
+      <c r="G94" s="13"/>
+      <c r="H94" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I94" t="s">
+        <v>140</v>
+      </c>
+      <c r="K94" s="19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="95" spans="7:11">
+      <c r="G95" s="13"/>
+      <c r="H95" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I95" t="s">
+        <v>140</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="7:11">
+      <c r="G96" s="13"/>
+      <c r="H96" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I96" t="s">
+        <v>140</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="7:11">
+      <c r="G97" s="13"/>
+      <c r="H97" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="I97" t="s">
+        <v>51</v>
+      </c>
+      <c r="K97" s="19" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="7:11">
+      <c r="G98" s="13"/>
+      <c r="H98" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="I98" t="s">
+        <v>51</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="7:11">
+      <c r="G99" s="13"/>
+      <c r="H99" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I99" t="s">
+        <v>140</v>
+      </c>
+      <c r="K99" s="21" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="100" spans="7:11">
+      <c r="G100" s="13"/>
+      <c r="H100" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="I100" t="s">
+        <v>140</v>
+      </c>
+      <c r="K100" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="101" spans="7:11">
+      <c r="G101" s="13"/>
+      <c r="H101" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="I101" t="s">
+        <v>140</v>
+      </c>
+      <c r="K101" s="21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="7:11">
+      <c r="G102" s="13"/>
+      <c r="H102" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+      <c r="K102" s="21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="7:11">
+      <c r="G103" s="13"/>
+      <c r="H103" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+      <c r="K103" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="7:11">
+      <c r="G104" s="13"/>
+      <c r="H104" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I104" t="s">
+        <v>140</v>
+      </c>
+      <c r="K104" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="105" spans="7:11">
+      <c r="G105" s="13"/>
+      <c r="H105" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="I105" t="s">
+        <v>140</v>
+      </c>
+      <c r="K105" s="21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="106" spans="7:11">
+      <c r="G106" s="13"/>
+      <c r="H106" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="I106" t="s">
+        <v>22</v>
+      </c>
+      <c r="K106" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="7:11">
+      <c r="G107" s="13"/>
+      <c r="H107" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="I107" t="s">
+        <v>46</v>
+      </c>
+      <c r="K107" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="7:11">
+      <c r="G108" s="13"/>
+      <c r="H108" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="I108" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="109" spans="7:11">
+      <c r="G109" s="13"/>
+      <c r="H109" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I109" t="s">
+        <v>140</v>
+      </c>
+      <c r="K109" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="110" spans="7:11">
+      <c r="G110" s="13"/>
+      <c r="H110" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="I110" t="s">
+        <v>140</v>
+      </c>
+      <c r="K110" s="21" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="111" spans="7:11">
+      <c r="G111" s="13"/>
+      <c r="H111" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="I111" t="s">
+        <v>140</v>
+      </c>
+      <c r="K111" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="112" spans="7:11">
+      <c r="G112" s="13"/>
+      <c r="H112" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+      <c r="K112" s="21" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="7:11">
+      <c r="G113" s="13"/>
+      <c r="H113" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I113" t="s">
+        <v>140</v>
+      </c>
+      <c r="K113" s="21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="7:11">
+      <c r="G114" s="13"/>
+      <c r="H114" s="17" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="88" spans="2:11">
-      <c r="B88" t="s">
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+      <c r="K114" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="H88" t="s">
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" t="s">
+        <v>189</v>
+      </c>
+      <c r="H115" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="I88" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" t="s">
+      <c r="I115" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="89" ht="15.5" spans="8:11">
-      <c r="H89" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="I89" t="s">
-        <v>138</v>
-      </c>
-      <c r="K89" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="90" ht="15.5" spans="8:11">
-      <c r="H90" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="I90" t="s">
-        <v>138</v>
-      </c>
-      <c r="K90" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="91" ht="15.5" spans="8:11">
-      <c r="H91" s="20" t="s">
+    <row r="116" ht="15.5" spans="8:11">
+      <c r="H116" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="I91" t="s">
-        <v>138</v>
-      </c>
-      <c r="K91" s="15" t="s">
+      <c r="I116" t="s">
+        <v>140</v>
+      </c>
+      <c r="K116" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="8:11">
-      <c r="H92" t="s">
+    <row r="117" ht="15.5" spans="8:11">
+      <c r="H117" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="15" t="s">
+      <c r="I117" t="s">
+        <v>140</v>
+      </c>
+      <c r="K117" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="K92" t="s">
+    </row>
+    <row r="118" ht="15.5" spans="8:11">
+      <c r="H118" s="20" t="s">
         <v>194</v>
+      </c>
+      <c r="I118" t="s">
+        <v>140</v>
+      </c>
+      <c r="K118" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11">
+      <c r="H119" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I119" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="203">
   <si>
     <t>##</t>
   </si>
@@ -127,7 +127,7 @@
     <t>ScriptValue</t>
   </si>
   <si>
-    <t>list,int</t>
+    <t>(list#sep=|),int</t>
   </si>
   <si>
     <t>道具脚本参数</t>
@@ -292,325 +292,337 @@
     <t>Vip限制</t>
   </si>
   <si>
-    <t>Hero.HeroTalentInfoBean</t>
+    <t>Prop.PropPoolBean</t>
+  </si>
+  <si>
+    <t>Propid</t>
+  </si>
+  <si>
+    <t>属性id</t>
+  </si>
+  <si>
+    <t>PropDes</t>
+  </si>
+  <si>
+    <t>属性描述</t>
+  </si>
+  <si>
+    <t>PropWeight</t>
+  </si>
+  <si>
+    <t>属性权重</t>
+  </si>
+  <si>
+    <t>PropMax</t>
+  </si>
+  <si>
+    <t>属性显示最大值</t>
+  </si>
+  <si>
+    <t>PropMin</t>
+  </si>
+  <si>
+    <t>属性显示最小值</t>
+  </si>
+  <si>
+    <t>Activity.BattlePassBean</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>升级经验</t>
+  </si>
+  <si>
+    <t>VIP_ItemConfigId</t>
+  </si>
+  <si>
+    <t>vip道具索引</t>
+  </si>
+  <si>
+    <t>VIP_ItemCount</t>
+  </si>
+  <si>
+    <t>vip道具数量</t>
+  </si>
+  <si>
+    <t>Activity.InvestMetaStoneBean</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>需要数量</t>
+  </si>
+  <si>
+    <t>GainMin</t>
+  </si>
+  <si>
+    <t>获得最小数量</t>
+  </si>
+  <si>
+    <t>GainMax</t>
+  </si>
+  <si>
+    <t>获得最大数量</t>
+  </si>
+  <si>
+    <t>Task.TaskFinishConditionBean</t>
+  </si>
+  <si>
+    <t>KeyString</t>
+  </si>
+  <si>
+    <t>条件Key</t>
+  </si>
+  <si>
+    <t>ValueInt</t>
+  </si>
+  <si>
+    <t>条件Value</t>
+  </si>
+  <si>
+    <t>Dota.PoolInfoBean</t>
+  </si>
+  <si>
+    <t>Dota.PoolGroupBean</t>
+  </si>
+  <si>
+    <t>PoolConfigId</t>
+  </si>
+  <si>
+    <t>PoolWeight</t>
+  </si>
+  <si>
+    <t>是否有效</t>
+  </si>
+  <si>
+    <t>Dota.RoundEnemyConfigBean</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>索引</t>
+  </si>
+  <si>
+    <t>unitname</t>
+  </si>
+  <si>
+    <t>回合单位名</t>
+  </si>
+  <si>
+    <t>position_x</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>位置x[0-7]</t>
+  </si>
+  <si>
+    <t>position_y</t>
+  </si>
+  <si>
+    <t>位置y[1-9]</t>
+  </si>
+  <si>
+    <t>angles_x</t>
+  </si>
+  <si>
+    <t>朝向x</t>
+  </si>
+  <si>
+    <t>angles_y</t>
+  </si>
+  <si>
+    <t>朝向y</t>
+  </si>
+  <si>
+    <t>angles_z</t>
+  </si>
+  <si>
+    <t>朝向z</t>
+  </si>
+  <si>
+    <t>israndompos</t>
+  </si>
+  <si>
+    <t>是否随机坐标</t>
+  </si>
+  <si>
+    <t>isground</t>
+  </si>
+  <si>
+    <t>是否在地面上</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>回合攻击系数</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>回合血量系数</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>回合蓝量系数</t>
+  </si>
+  <si>
+    <t>armorp</t>
+  </si>
+  <si>
+    <t>物理护甲系数</t>
+  </si>
+  <si>
+    <t>armorm</t>
+  </si>
+  <si>
+    <t>魔法护甲系数</t>
+  </si>
+  <si>
+    <t>gold_min</t>
+  </si>
+  <si>
+    <t>单个怪物击杀金币min</t>
+  </si>
+  <si>
+    <t>gold_max</t>
+  </si>
+  <si>
+    <t>单个怪物击杀金币max</t>
+  </si>
+  <si>
+    <t>failure_count</t>
+  </si>
+  <si>
+    <t>失败统计基数</t>
+  </si>
+  <si>
+    <t>elite_drop_index</t>
+  </si>
+  <si>
+    <t>精英怪掉落池编号</t>
+  </si>
+  <si>
+    <t>spawn_buff</t>
+  </si>
+  <si>
+    <t>单位自带buff</t>
+  </si>
+  <si>
+    <t>gold_wave_duration</t>
+  </si>
+  <si>
+    <t>打金箱子存活多久</t>
+  </si>
+  <si>
+    <t>damage_per</t>
+  </si>
+  <si>
+    <t>打金-每多少伤害给金币</t>
+  </si>
+  <si>
+    <t>gold_per</t>
+  </si>
+  <si>
+    <t>打金-每次给金币</t>
+  </si>
+  <si>
+    <t>gold_total_x</t>
+  </si>
+  <si>
+    <t>打金系数x</t>
+  </si>
+  <si>
+    <t>gold_total_y</t>
+  </si>
+  <si>
+    <t>打金系数y</t>
+  </si>
+  <si>
+    <t>gold_total_z</t>
+  </si>
+  <si>
+    <t>打金系数z</t>
+  </si>
+  <si>
+    <t>Dota.RoundChallengeEnemyConfigBean</t>
+  </si>
+  <si>
+    <t>种怪索引</t>
+  </si>
+  <si>
+    <t>unit_weight</t>
+  </si>
+  <si>
+    <t>Dota.UnitStarUpConfigBean</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
+    <t>AttributeBaseStrength</t>
+  </si>
+  <si>
+    <t>基础力量</t>
+  </si>
+  <si>
+    <t>AttributeBaseAgility</t>
+  </si>
+  <si>
+    <t>基础敏捷</t>
+  </si>
+  <si>
+    <t>AttributeBaseIntelligence</t>
+  </si>
+  <si>
+    <t>基础智力</t>
+  </si>
+  <si>
+    <t>AttachWearables</t>
+  </si>
+  <si>
+    <t>(list#sep=|),string</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>Dota.UnitTalentInfoBean</t>
   </si>
   <si>
     <t>TalentLevel</t>
   </si>
   <si>
-    <t>天赋等级</t>
-  </si>
-  <si>
-    <t>TalentGroup</t>
-  </si>
-  <si>
-    <t>天赋组</t>
-  </si>
-  <si>
-    <t>Prop.PropPoolBean</t>
-  </si>
-  <si>
-    <t>Propid</t>
-  </si>
-  <si>
-    <t>属性id</t>
-  </si>
-  <si>
-    <t>PropDes</t>
-  </si>
-  <si>
-    <t>属性描述</t>
-  </si>
-  <si>
-    <t>PropWeight</t>
-  </si>
-  <si>
-    <t>属性权重</t>
-  </si>
-  <si>
-    <t>PropMax</t>
-  </si>
-  <si>
-    <t>属性显示最大值</t>
-  </si>
-  <si>
-    <t>PropMin</t>
-  </si>
-  <si>
-    <t>属性显示最小值</t>
-  </si>
-  <si>
-    <t>Activity.BattlePassBean</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>升级经验</t>
-  </si>
-  <si>
-    <t>VIP_ItemConfigId</t>
-  </si>
-  <si>
-    <t>vip道具索引</t>
-  </si>
-  <si>
-    <t>VIP_ItemCount</t>
-  </si>
-  <si>
-    <t>vip道具数量</t>
-  </si>
-  <si>
-    <t>Activity.InvestMetaStoneBean</t>
-  </si>
-  <si>
-    <t>Need</t>
-  </si>
-  <si>
-    <t>需要数量</t>
-  </si>
-  <si>
-    <t>GainMin</t>
-  </si>
-  <si>
-    <t>获得最小数量</t>
-  </si>
-  <si>
-    <t>GainMax</t>
-  </si>
-  <si>
-    <t>获得最大数量</t>
-  </si>
-  <si>
-    <t>Task.TaskFinishConditionBean</t>
-  </si>
-  <si>
-    <t>KeyString</t>
-  </si>
-  <si>
-    <t>条件Key</t>
-  </si>
-  <si>
-    <t>ValueInt</t>
-  </si>
-  <si>
-    <t>条件Value</t>
-  </si>
-  <si>
-    <t>Dota.PoolInfoBean</t>
-  </si>
-  <si>
-    <t>Dota.PoolGroupBean</t>
-  </si>
-  <si>
-    <t>PoolConfigId</t>
-  </si>
-  <si>
-    <t>PoolWeight</t>
-  </si>
-  <si>
-    <t>是否有效</t>
-  </si>
-  <si>
-    <t>Dota.RoundEnemyConfigBean</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>索引</t>
-  </si>
-  <si>
-    <t>unitname</t>
-  </si>
-  <si>
-    <t>回合单位名</t>
-  </si>
-  <si>
-    <t>position_x</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>位置x[0-7]</t>
-  </si>
-  <si>
-    <t>position_y</t>
-  </si>
-  <si>
-    <t>位置y[1-9]</t>
-  </si>
-  <si>
-    <t>angles_x</t>
-  </si>
-  <si>
-    <t>朝向x</t>
-  </si>
-  <si>
-    <t>angles_y</t>
-  </si>
-  <si>
-    <t>朝向y</t>
-  </si>
-  <si>
-    <t>angles_z</t>
-  </si>
-  <si>
-    <t>朝向z</t>
-  </si>
-  <si>
-    <t>israndompos</t>
-  </si>
-  <si>
-    <t>是否随机坐标</t>
-  </si>
-  <si>
-    <t>isground</t>
-  </si>
-  <si>
-    <t>是否在地面上</t>
-  </si>
-  <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>回合攻击系数</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>回合血量系数</t>
-  </si>
-  <si>
-    <t>mp</t>
-  </si>
-  <si>
-    <t>回合蓝量系数</t>
-  </si>
-  <si>
-    <t>armorp</t>
-  </si>
-  <si>
-    <t>物理护甲系数</t>
-  </si>
-  <si>
-    <t>armorm</t>
-  </si>
-  <si>
-    <t>魔法护甲系数</t>
-  </si>
-  <si>
-    <t>gold_min</t>
-  </si>
-  <si>
-    <t>单个怪物击杀金币min</t>
-  </si>
-  <si>
-    <t>gold_max</t>
-  </si>
-  <si>
-    <t>单个怪物击杀金币max</t>
-  </si>
-  <si>
-    <t>failure_count</t>
-  </si>
-  <si>
-    <t>失败统计基数</t>
-  </si>
-  <si>
-    <t>elite_drop_index</t>
-  </si>
-  <si>
-    <t>精英怪掉落池编号</t>
-  </si>
-  <si>
-    <t>spawn_buff</t>
-  </si>
-  <si>
-    <t>单位自带buff</t>
-  </si>
-  <si>
-    <t>gold_wave_duration</t>
-  </si>
-  <si>
-    <t>打金箱子存活多久</t>
-  </si>
-  <si>
-    <t>damage_per</t>
-  </si>
-  <si>
-    <t>打金-每多少伤害给金币</t>
-  </si>
-  <si>
-    <t>gold_per</t>
-  </si>
-  <si>
-    <t>打金-每次给金币</t>
-  </si>
-  <si>
-    <t>gold_total_x</t>
-  </si>
-  <si>
-    <t>打金系数x</t>
-  </si>
-  <si>
-    <t>gold_total_y</t>
-  </si>
-  <si>
-    <t>打金系数y</t>
-  </si>
-  <si>
-    <t>gold_total_z</t>
-  </si>
-  <si>
-    <t>打金系数z</t>
-  </si>
-  <si>
-    <t>Dota.RoundChallengeEnemyConfigBean</t>
-  </si>
-  <si>
-    <t>种怪索引</t>
-  </si>
-  <si>
-    <t>unit_weight</t>
-  </si>
-  <si>
-    <t>Dota.UnitLevelUpConfigBean</t>
-  </si>
-  <si>
-    <t>AttributeBaseStrength</t>
-  </si>
-  <si>
-    <t>基础力量</t>
-  </si>
-  <si>
-    <t>AttributeBaseAgility</t>
-  </si>
-  <si>
-    <t>基础敏捷</t>
-  </si>
-  <si>
-    <t>AttributeBaseIntelligence</t>
-  </si>
-  <si>
-    <t>基础智力</t>
-  </si>
-  <si>
-    <t>AttachWearables</t>
-  </si>
-  <si>
-    <t>(list#sep=|),string</t>
-  </si>
-  <si>
-    <t>饰品</t>
+    <t>天赋组索引</t>
+  </si>
+  <si>
+    <t>TalentLeft</t>
+  </si>
+  <si>
+    <t>左侧天赋</t>
+  </si>
+  <si>
+    <t>TalentRight</t>
+  </si>
+  <si>
+    <t>右侧天赋</t>
   </si>
 </sst>
 </file>
@@ -1311,9 +1323,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1321,22 +1342,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1657,10 +1669,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L119"/>
+  <dimension ref="A1:L120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H90" sqref="H90"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H125" sqref="H125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1700,10 +1712,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="14"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -1822,7 +1834,7 @@
       <c r="H9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1847,7 +1859,7 @@
       <c r="H11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2154,990 +2166,1001 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="2:11">
+    <row r="38" ht="15.5" spans="2:11">
       <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H38" s="10" t="s">
         <v>93</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="K38" s="10" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="8:11">
-      <c r="H39" s="5" t="s">
+    <row r="39" ht="15.5" spans="8:11">
+      <c r="H39" s="10" t="s">
         <v>95</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="K39" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" s="10" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" ht="15.5" spans="2:11">
-      <c r="B40" t="s">
+    <row r="40" ht="15.5" spans="8:11">
+      <c r="H40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="I40" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>98</v>
-      </c>
-      <c r="I40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" ht="15.5" spans="8:11">
       <c r="H41" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="42" ht="15.5" spans="8:11">
       <c r="H42" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="10" t="s">
+    </row>
+    <row r="43" spans="2:11">
+      <c r="B43" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="43" ht="15.5" spans="8:11">
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="11" t="s">
         <v>104</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="44" ht="15.5" spans="8:11">
-      <c r="H44" s="10" t="s">
+    <row r="44" spans="8:11">
+      <c r="H44" s="11" t="s">
         <v>106</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="10" t="s">
+      <c r="K44" s="18" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="2:11">
-      <c r="B45" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" s="11" t="s">
-        <v>109</v>
+    <row r="45" spans="8:11">
+      <c r="H45" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="15" t="s">
-        <v>110</v>
+      <c r="K45" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="8:11">
       <c r="H46" s="11" t="s">
-        <v>111</v>
+        <v>24</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="15" t="s">
-        <v>112</v>
+      <c r="K46" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="8:11">
       <c r="H47" s="12" t="s">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="16" t="s">
-        <v>23</v>
+      <c r="K47" s="19" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="48" spans="8:11">
       <c r="H48" s="11" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="8:11">
-      <c r="H49" s="12" t="s">
+      <c r="K48" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11">
+      <c r="B49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>113</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="16" t="s">
+      <c r="K49" s="19" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" spans="8:11">
-      <c r="H50" s="11" t="s">
+      <c r="H50" s="12" t="s">
         <v>115</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="16" t="s">
+      <c r="K50" s="19" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="2:11">
-      <c r="B51" t="s">
+    <row r="51" spans="8:11">
+      <c r="H51" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="H51" s="11" t="s">
+      <c r="I51" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I51" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="16" t="s">
+    </row>
+    <row r="52" spans="2:11">
+      <c r="B52" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="52" spans="8:11">
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="4" t="s">
         <v>120</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K52" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K52" s="9" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="53" spans="8:11">
-      <c r="H53" s="11" t="s">
+      <c r="H53" s="1" t="s">
         <v>122</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K53" s="16" t="s">
+      <c r="K53" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>124</v>
       </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="H54" s="4" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>46</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>126</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="8:11">
       <c r="H55" s="1" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11">
-      <c r="B56" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="H56" s="4" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11">
+      <c r="H56" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="8:11">
-      <c r="H57" s="1" t="s">
-        <v>45</v>
+      <c r="H57" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="8:11">
       <c r="H58" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="8:11">
-      <c r="H59" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>22</v>
+        <v>51</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I59" t="s">
+        <v>46</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="8:11">
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="8:11">
+      <c r="H61" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11">
-      <c r="B61" t="s">
+      <c r="K61" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="B62" t="s">
+        <v>129</v>
+      </c>
+      <c r="G62" s="13"/>
+      <c r="H62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="H61" s="8" t="s">
+      <c r="I62" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="I61" t="s">
+    </row>
+    <row r="63" spans="7:11">
+      <c r="G63" s="13"/>
+      <c r="H63" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I63" t="s">
         <v>46</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="8:11">
-      <c r="H62" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K62" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="8:11">
-      <c r="H63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K63" s="9" t="s">
+      <c r="K63" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="2:11">
-      <c r="B64" t="s">
+    <row r="64" spans="7:11">
+      <c r="G64" s="15"/>
+      <c r="H64" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="I64" t="s">
-        <v>46</v>
-      </c>
-      <c r="K64" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K64" s="9" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65" spans="7:11">
-      <c r="G65" s="13"/>
-      <c r="H65" s="17" t="s">
+      <c r="G65" s="15"/>
+      <c r="H65" s="9" t="s">
         <v>137</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
-      </c>
-      <c r="K65" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="K65" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="18"/>
+    <row r="66" spans="6:11">
+      <c r="F66" s="13"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="9" t="s">
         <v>139</v>
       </c>
       <c r="I66" t="s">
+        <v>135</v>
+      </c>
+      <c r="K66" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K66" s="9" t="s">
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="15"/>
+      <c r="H67" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="18"/>
-      <c r="H67" s="9" t="s">
+      <c r="I67" t="s">
+        <v>135</v>
+      </c>
+      <c r="K67" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="I67" t="s">
-        <v>140</v>
-      </c>
-      <c r="K67" s="9" t="s">
+    </row>
+    <row r="68" spans="7:11">
+      <c r="G68" s="15"/>
+      <c r="H68" s="9" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="68" spans="6:11">
-      <c r="F68" s="13"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="9" t="s">
+      <c r="I68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K68" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I68" t="s">
-        <v>140</v>
-      </c>
-      <c r="K68" s="9" t="s">
+    </row>
+    <row r="69" spans="7:11">
+      <c r="G69" s="15"/>
+      <c r="H69" s="9" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="18"/>
-      <c r="H69" s="9" t="s">
+      <c r="I69" t="s">
+        <v>135</v>
+      </c>
+      <c r="K69" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="I69" t="s">
-        <v>140</v>
-      </c>
-      <c r="K69" s="9" t="s">
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="15"/>
+      <c r="H70" s="9" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="18"/>
-      <c r="H70" s="9" t="s">
+      <c r="I70" t="s">
+        <v>135</v>
+      </c>
+      <c r="K70" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="I70" t="s">
-        <v>140</v>
-      </c>
-      <c r="K70" s="9" t="s">
+    </row>
+    <row r="71" spans="7:11">
+      <c r="G71" s="15"/>
+      <c r="H71" s="9" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="71" spans="7:11">
-      <c r="G71" s="18"/>
-      <c r="H71" s="9" t="s">
+      <c r="I71" t="s">
+        <v>135</v>
+      </c>
+      <c r="K71" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="I71" t="s">
-        <v>140</v>
-      </c>
-      <c r="K71" s="9" t="s">
+    </row>
+    <row r="72" spans="7:11">
+      <c r="G72" s="13"/>
+      <c r="H72" s="14" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="72" spans="7:11">
-      <c r="G72" s="18"/>
-      <c r="H72" s="9" t="s">
+      <c r="I72" t="s">
+        <v>135</v>
+      </c>
+      <c r="K72" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="I72" t="s">
-        <v>140</v>
-      </c>
-      <c r="K72" s="9" t="s">
+    </row>
+    <row r="73" spans="7:11">
+      <c r="G73" s="13"/>
+      <c r="H73" s="14" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="7:11">
-      <c r="G73" s="18"/>
-      <c r="H73" s="9" t="s">
+      <c r="I73" t="s">
+        <v>135</v>
+      </c>
+      <c r="K73" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="I73" t="s">
-        <v>140</v>
-      </c>
-      <c r="K73" s="21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="74" spans="7:11">
       <c r="G74" s="13"/>
-      <c r="H74" s="17" t="s">
+      <c r="H74" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I74" t="s">
+        <v>135</v>
+      </c>
+      <c r="K74" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="I74" t="s">
-        <v>140</v>
-      </c>
-      <c r="K74" s="21" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="75" spans="7:11">
       <c r="G75" s="13"/>
-      <c r="H75" s="17" t="s">
+      <c r="H75" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I75" t="s">
+        <v>135</v>
+      </c>
+      <c r="K75" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="I75" t="s">
-        <v>140</v>
-      </c>
-      <c r="K75" s="21" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="76" spans="7:11">
       <c r="G76" s="13"/>
-      <c r="H76" s="17" t="s">
+      <c r="H76" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K76" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="I76" t="s">
-        <v>140</v>
-      </c>
-      <c r="K76" s="21" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="77" spans="7:11">
       <c r="G77" s="13"/>
-      <c r="H77" s="17" t="s">
+      <c r="H77" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I77" t="s">
+        <v>135</v>
+      </c>
+      <c r="K77" s="20" t="s">
         <v>162</v>
-      </c>
-      <c r="I77" t="s">
-        <v>140</v>
-      </c>
-      <c r="K77" s="21" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="78" spans="7:11">
       <c r="G78" s="13"/>
-      <c r="H78" s="17" t="s">
+      <c r="H78" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="I78" t="s">
-        <v>140</v>
-      </c>
-      <c r="K78" s="21" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="79" spans="7:11">
       <c r="G79" s="13"/>
-      <c r="H79" s="17" t="s">
+      <c r="H79" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I79" t="s">
+        <v>46</v>
+      </c>
+      <c r="K79" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="I79" t="s">
-        <v>140</v>
-      </c>
-      <c r="K79" s="21" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="80" spans="7:11">
       <c r="G80" s="13"/>
-      <c r="H80" s="17" t="s">
+      <c r="H80" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I80" t="s">
+        <v>46</v>
+      </c>
+      <c r="K80" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="I80" t="s">
-        <v>22</v>
-      </c>
-      <c r="K80" s="21" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="81" spans="7:11">
       <c r="G81" s="13"/>
-      <c r="H81" s="17" t="s">
+      <c r="H81" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I81" t="s">
+        <v>135</v>
+      </c>
+      <c r="K81" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="I81" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81" s="21" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="82" spans="7:11">
       <c r="G82" s="13"/>
-      <c r="H82" s="17" t="s">
+      <c r="H82" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="I82" t="s">
-        <v>46</v>
-      </c>
-      <c r="K82" s="21" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="13"/>
-      <c r="H83" s="17" t="s">
+      <c r="H83" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="I83" t="s">
-        <v>140</v>
-      </c>
-      <c r="K83" s="21" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="13"/>
-      <c r="H84" s="17" t="s">
+      <c r="H84" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I84" t="s">
+        <v>135</v>
+      </c>
+      <c r="K84" s="20" t="s">
         <v>176</v>
-      </c>
-      <c r="I84" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" s="21" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="85" spans="7:11">
       <c r="G85" s="13"/>
-      <c r="H85" s="17" t="s">
+      <c r="H85" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I85" t="s">
+        <v>135</v>
+      </c>
+      <c r="K85" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="I85" t="s">
-        <v>22</v>
-      </c>
-      <c r="K85" s="21" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="13"/>
-      <c r="H86" s="17" t="s">
+      <c r="H86" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I86" t="s">
+        <v>135</v>
+      </c>
+      <c r="K86" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I86" t="s">
-        <v>140</v>
-      </c>
-      <c r="K86" s="21" t="s">
+    </row>
+    <row r="87" spans="2:11">
+      <c r="B87" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="87" spans="7:11">
       <c r="G87" s="13"/>
-      <c r="H87" s="17" t="s">
+      <c r="H87" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I87" t="s">
+        <v>46</v>
+      </c>
+      <c r="K87" s="20" t="s">
         <v>182</v>
-      </c>
-      <c r="I87" t="s">
-        <v>140</v>
-      </c>
-      <c r="K87" s="21" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="88" spans="7:11">
       <c r="G88" s="13"/>
-      <c r="H88" s="17" t="s">
-        <v>184</v>
+      <c r="H88" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="I88" t="s">
-        <v>140</v>
-      </c>
-      <c r="K88" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="89" spans="2:11">
-      <c r="B89" t="s">
-        <v>186</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="K88" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="7:11">
       <c r="G89" s="13"/>
-      <c r="H89" s="17" t="s">
-        <v>135</v>
+      <c r="H89" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>187</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="7:11">
       <c r="G90" s="13"/>
-      <c r="H90" s="17" t="s">
-        <v>137</v>
+      <c r="H90" s="21" t="s">
+        <v>134</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="K90" s="21" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="7:11">
       <c r="G91" s="13"/>
-      <c r="H91" s="19" t="s">
-        <v>188</v>
+      <c r="H91" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="19" t="s">
-        <v>57</v>
+        <v>135</v>
+      </c>
+      <c r="K91" s="21" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="92" spans="7:11">
       <c r="G92" s="13"/>
-      <c r="H92" s="19" t="s">
+      <c r="H92" s="21" t="s">
         <v>139</v>
       </c>
       <c r="I92" t="s">
+        <v>135</v>
+      </c>
+      <c r="K92" s="21" t="s">
         <v>140</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="93" spans="7:11">
       <c r="G93" s="13"/>
-      <c r="H93" s="19" t="s">
+      <c r="H93" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="I93" t="s">
+        <v>135</v>
+      </c>
+      <c r="K93" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="I93" t="s">
-        <v>140</v>
-      </c>
-      <c r="K93" s="19" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="94" spans="7:11">
       <c r="G94" s="13"/>
-      <c r="H94" s="19" t="s">
+      <c r="H94" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I94" t="s">
+        <v>135</v>
+      </c>
+      <c r="K94" s="21" t="s">
         <v>144</v>
-      </c>
-      <c r="I94" t="s">
-        <v>140</v>
-      </c>
-      <c r="K94" s="19" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="95" spans="7:11">
       <c r="G95" s="13"/>
-      <c r="H95" s="19" t="s">
+      <c r="H95" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="I95" t="s">
+        <v>51</v>
+      </c>
+      <c r="K95" s="21" t="s">
         <v>146</v>
-      </c>
-      <c r="I95" t="s">
-        <v>140</v>
-      </c>
-      <c r="K95" s="19" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="96" spans="7:11">
       <c r="G96" s="13"/>
-      <c r="H96" s="19" t="s">
+      <c r="H96" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I96" t="s">
+        <v>51</v>
+      </c>
+      <c r="K96" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="I96" t="s">
-        <v>140</v>
-      </c>
-      <c r="K96" s="19" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="97" spans="7:11">
       <c r="G97" s="13"/>
-      <c r="H97" s="19" t="s">
+      <c r="H97" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="I97" t="s">
+        <v>135</v>
+      </c>
+      <c r="K97" s="20" t="s">
         <v>150</v>
-      </c>
-      <c r="I97" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97" s="19" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="98" spans="7:11">
       <c r="G98" s="13"/>
-      <c r="H98" s="19" t="s">
+      <c r="H98" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+      <c r="K98" s="20" t="s">
         <v>152</v>
-      </c>
-      <c r="I98" t="s">
-        <v>51</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="99" spans="7:11">
       <c r="G99" s="13"/>
-      <c r="H99" s="19" t="s">
+      <c r="H99" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="I99" t="s">
+        <v>135</v>
+      </c>
+      <c r="K99" s="20" t="s">
         <v>154</v>
-      </c>
-      <c r="I99" t="s">
-        <v>140</v>
-      </c>
-      <c r="K99" s="21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="100" spans="7:11">
       <c r="G100" s="13"/>
-      <c r="H100" s="17" t="s">
+      <c r="H100" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="I100" t="s">
+        <v>135</v>
+      </c>
+      <c r="K100" s="20" t="s">
         <v>156</v>
-      </c>
-      <c r="I100" t="s">
-        <v>140</v>
-      </c>
-      <c r="K100" s="21" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="101" spans="7:11">
       <c r="G101" s="13"/>
-      <c r="H101" s="17" t="s">
+      <c r="H101" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+      <c r="K101" s="20" t="s">
         <v>158</v>
-      </c>
-      <c r="I101" t="s">
-        <v>140</v>
-      </c>
-      <c r="K101" s="21" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="102" spans="7:11">
       <c r="G102" s="13"/>
-      <c r="H102" s="17" t="s">
+      <c r="H102" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I102" t="s">
+        <v>135</v>
+      </c>
+      <c r="K102" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="I102" t="s">
-        <v>140</v>
-      </c>
-      <c r="K102" s="21" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="103" spans="7:11">
       <c r="G103" s="13"/>
-      <c r="H103" s="17" t="s">
+      <c r="H103" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I103" t="s">
+        <v>135</v>
+      </c>
+      <c r="K103" s="20" t="s">
         <v>162</v>
-      </c>
-      <c r="I103" t="s">
-        <v>140</v>
-      </c>
-      <c r="K103" s="21" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="104" spans="7:11">
       <c r="G104" s="13"/>
-      <c r="H104" s="17" t="s">
+      <c r="H104" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="I104" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="I104" t="s">
-        <v>140</v>
-      </c>
-      <c r="K104" s="21" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="105" spans="7:11">
       <c r="G105" s="13"/>
-      <c r="H105" s="17" t="s">
+      <c r="H105" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="I105" t="s">
+        <v>46</v>
+      </c>
+      <c r="K105" s="20" t="s">
         <v>166</v>
-      </c>
-      <c r="I105" t="s">
-        <v>140</v>
-      </c>
-      <c r="K105" s="21" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="106" spans="7:11">
       <c r="G106" s="13"/>
-      <c r="H106" s="17" t="s">
+      <c r="H106" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="I106" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106" s="20" t="s">
         <v>168</v>
-      </c>
-      <c r="I106" t="s">
-        <v>22</v>
-      </c>
-      <c r="K106" s="21" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="107" spans="7:11">
       <c r="G107" s="13"/>
-      <c r="H107" s="17" t="s">
+      <c r="H107" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+      <c r="K107" s="20" t="s">
         <v>170</v>
-      </c>
-      <c r="I107" t="s">
-        <v>46</v>
-      </c>
-      <c r="K107" s="21" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="108" spans="7:11">
       <c r="G108" s="13"/>
-      <c r="H108" s="17" t="s">
+      <c r="H108" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="I108" t="s">
+        <v>135</v>
+      </c>
+      <c r="K108" s="20" t="s">
         <v>172</v>
-      </c>
-      <c r="I108" t="s">
-        <v>46</v>
-      </c>
-      <c r="K108" s="21" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="109" spans="7:11">
       <c r="G109" s="13"/>
-      <c r="H109" s="17" t="s">
+      <c r="H109" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+      <c r="K109" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="I109" t="s">
-        <v>140</v>
-      </c>
-      <c r="K109" s="21" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="110" spans="7:11">
       <c r="G110" s="13"/>
-      <c r="H110" s="17" t="s">
+      <c r="H110" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="I110" t="s">
+        <v>135</v>
+      </c>
+      <c r="K110" s="20" t="s">
         <v>176</v>
-      </c>
-      <c r="I110" t="s">
-        <v>140</v>
-      </c>
-      <c r="K110" s="21" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="111" spans="7:11">
       <c r="G111" s="13"/>
-      <c r="H111" s="17" t="s">
+      <c r="H111" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I111" t="s">
+        <v>135</v>
+      </c>
+      <c r="K111" s="20" t="s">
         <v>178</v>
-      </c>
-      <c r="I111" t="s">
-        <v>140</v>
-      </c>
-      <c r="K111" s="21" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="112" spans="7:11">
       <c r="G112" s="13"/>
-      <c r="H112" s="17" t="s">
+      <c r="H112" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="I112" t="s">
+        <v>135</v>
+      </c>
+      <c r="K112" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="I112" t="s">
-        <v>140</v>
-      </c>
-      <c r="K112" s="21" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="113" spans="7:11">
-      <c r="G113" s="13"/>
-      <c r="H113" s="17" t="s">
-        <v>182</v>
+    </row>
+    <row r="113" ht="15.5" spans="2:11">
+      <c r="B113" t="s">
+        <v>184</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="I113" t="s">
-        <v>140</v>
-      </c>
-      <c r="K113" s="21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="114" spans="7:11">
-      <c r="G114" s="13"/>
-      <c r="H114" s="17" t="s">
-        <v>184</v>
+        <v>22</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" ht="15.5" spans="8:11">
+      <c r="H114" s="22" t="s">
+        <v>187</v>
       </c>
       <c r="I114" t="s">
-        <v>140</v>
-      </c>
-      <c r="K114" s="21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="B115" t="s">
+        <v>135</v>
+      </c>
+      <c r="K114" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="115" ht="15.5" spans="8:11">
+      <c r="H115" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="I115" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>110</v>
+        <v>135</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="116" ht="15.5" spans="8:11">
-      <c r="H116" s="20" t="s">
-        <v>190</v>
+      <c r="H116" s="22" t="s">
+        <v>191</v>
       </c>
       <c r="I116" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="K116" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="117" ht="15.5" spans="8:11">
-      <c r="H117" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="I117" t="s">
-        <v>140</v>
-      </c>
-      <c r="K117" s="8" t="s">
+    </row>
+    <row r="117" spans="8:11">
+      <c r="H117" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="118" ht="15.5" spans="8:11">
-      <c r="H118" s="20" t="s">
+      <c r="I117" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="I118" t="s">
-        <v>140</v>
-      </c>
-      <c r="K118" s="8" t="s">
+      <c r="K117" s="1" t="s">
         <v>195</v>
       </c>
     </row>
+    <row r="118" spans="2:11">
+      <c r="B118" t="s">
+        <v>196</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
     <row r="119" spans="8:11">
-      <c r="H119" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="I119" s="22" t="s">
-        <v>197</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>198</v>
+      <c r="H119" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="8:11">
+      <c r="H120" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="188">
   <si>
     <t>##</t>
   </si>
@@ -418,6 +418,12 @@
     <t>回合单位名</t>
   </si>
   <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>星级</t>
+  </si>
+  <si>
     <t>position_x</t>
   </si>
   <si>
@@ -475,24 +481,18 @@
     <t>回合血量系数</t>
   </si>
   <si>
-    <t>mp</t>
+    <t>phyarm</t>
   </si>
   <si>
     <t>回合蓝量系数</t>
   </si>
   <si>
-    <t>armorp</t>
+    <t>magicarm</t>
   </si>
   <si>
     <t>物理护甲系数</t>
   </si>
   <si>
-    <t>armorm</t>
-  </si>
-  <si>
-    <t>魔法护甲系数</t>
-  </si>
-  <si>
     <t>gold_min</t>
   </si>
   <si>
@@ -505,12 +505,6 @@
     <t>单个怪物击杀金币max</t>
   </si>
   <si>
-    <t>failure_count</t>
-  </si>
-  <si>
-    <t>失败统计基数</t>
-  </si>
-  <si>
     <t>elite_drop_index</t>
   </si>
   <si>
@@ -523,42 +517,6 @@
     <t>单位自带buff</t>
   </si>
   <si>
-    <t>gold_wave_duration</t>
-  </si>
-  <si>
-    <t>打金箱子存活多久</t>
-  </si>
-  <si>
-    <t>damage_per</t>
-  </si>
-  <si>
-    <t>打金-每多少伤害给金币</t>
-  </si>
-  <si>
-    <t>gold_per</t>
-  </si>
-  <si>
-    <t>打金-每次给金币</t>
-  </si>
-  <si>
-    <t>gold_total_x</t>
-  </si>
-  <si>
-    <t>打金系数x</t>
-  </si>
-  <si>
-    <t>gold_total_y</t>
-  </si>
-  <si>
-    <t>打金系数y</t>
-  </si>
-  <si>
-    <t>gold_total_z</t>
-  </si>
-  <si>
-    <t>打金系数z</t>
-  </si>
-  <si>
     <t>Dota.RoundChallengeEnemyConfigBean</t>
   </si>
   <si>
@@ -572,9 +530,6 @@
   </si>
   <si>
     <t>Star</t>
-  </si>
-  <si>
-    <t>星级</t>
   </si>
   <si>
     <t>AttributeBaseStrength</t>
@@ -1280,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1326,23 +1281,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1669,10 +1630,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L120"/>
+  <dimension ref="A1:L106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="H74" sqref="H74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1712,10 +1673,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="16"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -1834,7 +1795,7 @@
       <c r="H9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="16" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1859,7 +1820,7 @@
       <c r="H11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2234,7 +2195,7 @@
       <c r="I43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="18" t="s">
+      <c r="K43" s="17" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2245,7 +2206,7 @@
       <c r="I44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="18" t="s">
+      <c r="K44" s="17" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2256,7 +2217,7 @@
       <c r="I45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="19" t="s">
+      <c r="K45" s="18" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2267,7 +2228,7 @@
       <c r="I46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="19" t="s">
+      <c r="K46" s="18" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2278,7 +2239,7 @@
       <c r="I47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="19" t="s">
+      <c r="K47" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2289,7 +2250,7 @@
       <c r="I48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="19" t="s">
+      <c r="K48" s="18" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2303,7 +2264,7 @@
       <c r="I49" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="19" t="s">
+      <c r="K49" s="18" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2314,7 +2275,7 @@
       <c r="I50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="K50" s="18" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2325,7 +2286,7 @@
       <c r="I51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K51" s="19" t="s">
+      <c r="K51" s="18" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2473,152 +2434,148 @@
       <c r="I63" t="s">
         <v>46</v>
       </c>
-      <c r="K63" s="20" t="s">
+      <c r="K63" s="19" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64" spans="7:11">
-      <c r="G64" s="15"/>
-      <c r="H64" s="9" t="s">
+      <c r="G64" s="13"/>
+      <c r="H64" s="14" t="s">
         <v>134</v>
       </c>
       <c r="I64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="K64" s="9" t="s">
+    </row>
+    <row r="65" spans="7:11">
+      <c r="G65" s="20"/>
+      <c r="H65" s="9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="65" spans="7:11">
-      <c r="G65" s="15"/>
-      <c r="H65" s="9" t="s">
+      <c r="I65" t="s">
         <v>137</v>
-      </c>
-      <c r="I65" t="s">
-        <v>135</v>
       </c>
       <c r="K65" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="6:11">
-      <c r="F66" s="13"/>
-      <c r="G66" s="15"/>
+    <row r="66" spans="7:11">
+      <c r="G66" s="20"/>
       <c r="H66" s="9" t="s">
         <v>139</v>
       </c>
       <c r="I66" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K66" s="9" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="15"/>
+    <row r="67" spans="6:11">
+      <c r="F67" s="13"/>
+      <c r="G67" s="20"/>
       <c r="H67" s="9" t="s">
         <v>141</v>
       </c>
       <c r="I67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K67" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68" spans="7:11">
-      <c r="G68" s="15"/>
+      <c r="G68" s="20"/>
       <c r="H68" s="9" t="s">
         <v>143</v>
       </c>
       <c r="I68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K68" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="69" spans="7:11">
-      <c r="G69" s="15"/>
+      <c r="G69" s="20"/>
       <c r="H69" s="9" t="s">
         <v>145</v>
       </c>
       <c r="I69" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K69" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="7:11">
-      <c r="G70" s="15"/>
+      <c r="G70" s="20"/>
       <c r="H70" s="9" t="s">
         <v>147</v>
       </c>
       <c r="I70" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K70" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="71" spans="7:11">
-      <c r="G71" s="15"/>
+      <c r="G71" s="20"/>
       <c r="H71" s="9" t="s">
         <v>149</v>
       </c>
       <c r="I71" t="s">
-        <v>135</v>
-      </c>
-      <c r="K71" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K71" s="9" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="72" spans="7:11">
-      <c r="G72" s="13"/>
-      <c r="H72" s="14" t="s">
+    <row r="72" spans="8:11">
+      <c r="H72" s="21" t="s">
         <v>151</v>
       </c>
       <c r="I72" t="s">
-        <v>135</v>
-      </c>
-      <c r="K72" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K72" s="19" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="73" spans="7:11">
-      <c r="G73" s="13"/>
-      <c r="H73" s="14" t="s">
+    <row r="73" spans="8:11">
+      <c r="H73" s="22" t="s">
         <v>153</v>
       </c>
       <c r="I73" t="s">
-        <v>135</v>
-      </c>
-      <c r="K73" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K73" s="19" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="74" spans="7:11">
-      <c r="G74" s="13"/>
-      <c r="H74" s="14" t="s">
+    <row r="74" spans="8:11">
+      <c r="H74" s="22" t="s">
         <v>155</v>
       </c>
       <c r="I74" t="s">
-        <v>135</v>
-      </c>
-      <c r="K74" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K74" s="19" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="75" spans="7:11">
-      <c r="G75" s="13"/>
-      <c r="H75" s="14" t="s">
+    <row r="75" spans="8:11">
+      <c r="H75" s="22" t="s">
         <v>157</v>
       </c>
       <c r="I75" t="s">
-        <v>135</v>
-      </c>
-      <c r="K75" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K75" s="19" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2628,9 +2585,9 @@
         <v>159</v>
       </c>
       <c r="I76" t="s">
-        <v>135</v>
-      </c>
-      <c r="K76" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K76" s="19" t="s">
         <v>160</v>
       </c>
     </row>
@@ -2640,9 +2597,9 @@
         <v>161</v>
       </c>
       <c r="I77" t="s">
-        <v>135</v>
-      </c>
-      <c r="K77" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="K77" s="19" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2652,9 +2609,9 @@
         <v>163</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
-      </c>
-      <c r="K78" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K78" s="19" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2666,501 +2623,333 @@
       <c r="I79" t="s">
         <v>46</v>
       </c>
-      <c r="K79" s="20" t="s">
+      <c r="K79" s="19" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="80" spans="7:11">
+    <row r="80" spans="2:11">
+      <c r="B80" t="s">
+        <v>167</v>
+      </c>
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="I80" t="s">
         <v>46</v>
       </c>
-      <c r="K80" s="20" t="s">
+      <c r="K80" s="19" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="81" spans="7:11">
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>169</v>
+        <v>132</v>
       </c>
       <c r="I81" t="s">
-        <v>135</v>
-      </c>
-      <c r="K81" s="20" t="s">
-        <v>170</v>
+        <v>46</v>
+      </c>
+      <c r="K81" s="19" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="7:11">
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
-      <c r="K82" s="20" t="s">
-        <v>172</v>
+      <c r="K82" s="19" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="13"/>
-      <c r="H83" s="14" t="s">
-        <v>173</v>
+      <c r="H83" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
       </c>
-      <c r="K83" s="20" t="s">
-        <v>174</v>
+      <c r="K83" s="23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="13"/>
-      <c r="H84" s="14" t="s">
-        <v>175</v>
+      <c r="H84" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="I84" t="s">
-        <v>135</v>
-      </c>
-      <c r="K84" s="20" t="s">
-        <v>176</v>
+        <v>137</v>
+      </c>
+      <c r="K84" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="85" spans="7:11">
       <c r="G85" s="13"/>
-      <c r="H85" s="14" t="s">
-        <v>177</v>
+      <c r="H85" s="23" t="s">
+        <v>139</v>
       </c>
       <c r="I85" t="s">
-        <v>135</v>
-      </c>
-      <c r="K85" s="20" t="s">
-        <v>178</v>
+        <v>137</v>
+      </c>
+      <c r="K85" s="23" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="13"/>
-      <c r="H86" s="14" t="s">
-        <v>179</v>
+      <c r="H86" s="23" t="s">
+        <v>141</v>
       </c>
       <c r="I86" t="s">
-        <v>135</v>
-      </c>
-      <c r="K86" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="87" spans="2:11">
-      <c r="B87" t="s">
-        <v>181</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K86" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="7:11">
       <c r="G87" s="13"/>
-      <c r="H87" s="14" t="s">
-        <v>130</v>
+      <c r="H87" s="23" t="s">
+        <v>143</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87" s="20" t="s">
-        <v>182</v>
+        <v>137</v>
+      </c>
+      <c r="K87" s="23" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="88" spans="7:11">
       <c r="G88" s="13"/>
-      <c r="H88" s="14" t="s">
-        <v>132</v>
+      <c r="H88" s="23" t="s">
+        <v>145</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
-      </c>
-      <c r="K88" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
+      </c>
+      <c r="K88" s="23" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="7:11">
       <c r="G89" s="13"/>
-      <c r="H89" s="21" t="s">
-        <v>183</v>
+      <c r="H89" s="23" t="s">
+        <v>147</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" s="21" t="s">
-        <v>57</v>
+        <v>51</v>
+      </c>
+      <c r="K89" s="23" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="7:11">
       <c r="G90" s="13"/>
-      <c r="H90" s="21" t="s">
-        <v>134</v>
+      <c r="H90" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="I90" t="s">
-        <v>135</v>
-      </c>
-      <c r="K90" s="21" t="s">
-        <v>136</v>
+        <v>51</v>
+      </c>
+      <c r="K90" s="23" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="7:11">
       <c r="G91" s="13"/>
       <c r="H91" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="I91" t="s">
         <v>137</v>
       </c>
-      <c r="I91" t="s">
-        <v>135</v>
-      </c>
-      <c r="K91" s="21" t="s">
-        <v>138</v>
+      <c r="K91" s="19" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="7:11">
       <c r="G92" s="13"/>
-      <c r="H92" s="21" t="s">
-        <v>139</v>
+      <c r="H92" s="22" t="s">
+        <v>153</v>
       </c>
       <c r="I92" t="s">
-        <v>135</v>
-      </c>
-      <c r="K92" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
+      </c>
+      <c r="K92" s="19" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="93" spans="7:11">
       <c r="G93" s="13"/>
-      <c r="H93" s="21" t="s">
-        <v>141</v>
+      <c r="H93" s="22" t="s">
+        <v>155</v>
       </c>
       <c r="I93" t="s">
-        <v>135</v>
-      </c>
-      <c r="K93" s="21" t="s">
-        <v>142</v>
+        <v>137</v>
+      </c>
+      <c r="K93" s="19" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="94" spans="7:11">
       <c r="G94" s="13"/>
-      <c r="H94" s="21" t="s">
-        <v>143</v>
+      <c r="H94" s="22" t="s">
+        <v>157</v>
       </c>
       <c r="I94" t="s">
-        <v>135</v>
-      </c>
-      <c r="K94" s="21" t="s">
-        <v>144</v>
+        <v>137</v>
+      </c>
+      <c r="K94" s="19" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="7:11">
       <c r="G95" s="13"/>
-      <c r="H95" s="21" t="s">
-        <v>145</v>
+      <c r="H95" s="14" t="s">
+        <v>159</v>
       </c>
       <c r="I95" t="s">
-        <v>51</v>
-      </c>
-      <c r="K95" s="21" t="s">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="K95" s="19" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="96" spans="7:11">
       <c r="G96" s="13"/>
-      <c r="H96" s="21" t="s">
-        <v>147</v>
+      <c r="H96" s="14" t="s">
+        <v>161</v>
       </c>
       <c r="I96" t="s">
-        <v>51</v>
-      </c>
-      <c r="K96" s="21" t="s">
-        <v>148</v>
+        <v>137</v>
+      </c>
+      <c r="K96" s="19" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="7:11">
       <c r="G97" s="13"/>
-      <c r="H97" s="21" t="s">
-        <v>149</v>
+      <c r="H97" s="14" t="s">
+        <v>163</v>
       </c>
       <c r="I97" t="s">
-        <v>135</v>
-      </c>
-      <c r="K97" s="20" t="s">
-        <v>150</v>
+        <v>46</v>
+      </c>
+      <c r="K97" s="19" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="98" spans="7:11">
       <c r="G98" s="13"/>
       <c r="H98" s="14" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="I98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" ht="15.5" spans="2:11">
+      <c r="B99" t="s">
+        <v>170</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I99" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="20" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="99" spans="7:11">
-      <c r="G99" s="13"/>
-      <c r="H99" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="I99" t="s">
-        <v>135</v>
-      </c>
-      <c r="K99" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="100" spans="7:11">
-      <c r="G100" s="13"/>
-      <c r="H100" s="14" t="s">
-        <v>155</v>
+    </row>
+    <row r="100" ht="15.5" spans="8:11">
+      <c r="H100" s="24" t="s">
+        <v>172</v>
       </c>
       <c r="I100" t="s">
-        <v>135</v>
-      </c>
-      <c r="K100" s="20" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="101" spans="7:11">
-      <c r="G101" s="13"/>
-      <c r="H101" s="14" t="s">
-        <v>157</v>
+        <v>137</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="101" ht="15.5" spans="8:11">
+      <c r="H101" s="24" t="s">
+        <v>174</v>
       </c>
       <c r="I101" t="s">
-        <v>135</v>
-      </c>
-      <c r="K101" s="20" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="102" spans="7:11">
-      <c r="G102" s="13"/>
-      <c r="H102" s="14" t="s">
-        <v>159</v>
+        <v>137</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" ht="15.5" spans="8:11">
+      <c r="H102" s="24" t="s">
+        <v>176</v>
       </c>
       <c r="I102" t="s">
-        <v>135</v>
-      </c>
-      <c r="K102" s="20" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="103" spans="7:11">
-      <c r="G103" s="13"/>
-      <c r="H103" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I103" t="s">
-        <v>135</v>
-      </c>
-      <c r="K103" s="20" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="104" spans="7:11">
-      <c r="G104" s="13"/>
-      <c r="H104" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="I104" t="s">
-        <v>22</v>
-      </c>
-      <c r="K104" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="105" spans="7:11">
-      <c r="G105" s="13"/>
-      <c r="H105" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I105" t="s">
+        <v>137</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11">
+      <c r="H103" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I103" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11">
+      <c r="B104" t="s">
+        <v>181</v>
+      </c>
+      <c r="H104" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="I104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="8:11">
+      <c r="H105" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I105" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K105" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="7:11">
-      <c r="G106" s="13"/>
-      <c r="H106" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="I106" t="s">
+      <c r="K105" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11">
+      <c r="H106" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I106" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K106" s="20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="107" spans="7:11">
-      <c r="G107" s="13"/>
-      <c r="H107" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="I107" t="s">
-        <v>135</v>
-      </c>
-      <c r="K107" s="20" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="108" spans="7:11">
-      <c r="G108" s="13"/>
-      <c r="H108" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="I108" t="s">
-        <v>135</v>
-      </c>
-      <c r="K108" s="20" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="109" spans="7:11">
-      <c r="G109" s="13"/>
-      <c r="H109" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="I109" t="s">
-        <v>135</v>
-      </c>
-      <c r="K109" s="20" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="110" spans="7:11">
-      <c r="G110" s="13"/>
-      <c r="H110" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="I110" t="s">
-        <v>135</v>
-      </c>
-      <c r="K110" s="20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="111" spans="7:11">
-      <c r="G111" s="13"/>
-      <c r="H111" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="I111" t="s">
-        <v>135</v>
-      </c>
-      <c r="K111" s="20" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="112" spans="7:11">
-      <c r="G112" s="13"/>
-      <c r="H112" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="I112" t="s">
-        <v>135</v>
-      </c>
-      <c r="K112" s="20" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="113" ht="15.5" spans="2:11">
-      <c r="B113" t="s">
-        <v>184</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="I113" t="s">
-        <v>22</v>
-      </c>
-      <c r="K113" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" ht="15.5" spans="8:11">
-      <c r="H114" s="22" t="s">
+      <c r="K106" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="I114" t="s">
-        <v>135</v>
-      </c>
-      <c r="K114" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="115" ht="15.5" spans="8:11">
-      <c r="H115" s="22" t="s">
-        <v>189</v>
-      </c>
-      <c r="I115" t="s">
-        <v>135</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="116" ht="15.5" spans="8:11">
-      <c r="H116" s="22" t="s">
-        <v>191</v>
-      </c>
-      <c r="I116" t="s">
-        <v>135</v>
-      </c>
-      <c r="K116" s="8" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="117" spans="8:11">
-      <c r="H117" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="I117" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" t="s">
-        <v>196</v>
-      </c>
-      <c r="H118" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="I118" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="119" spans="8:11">
-      <c r="H119" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="I119" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K119" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="120" spans="8:11">
-      <c r="H120" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="I120" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="198">
   <si>
     <t>##</t>
   </si>
@@ -578,6 +578,36 @@
   </si>
   <si>
     <t>右侧天赋</t>
+  </si>
+  <si>
+    <t>Dota.PublicShopSellItemBean</t>
+  </si>
+  <si>
+    <t>ItemSlot</t>
+  </si>
+  <si>
+    <t>商品槽位</t>
+  </si>
+  <si>
+    <t>商品ID或者随机池</t>
+  </si>
+  <si>
+    <t>ItemLimit</t>
+  </si>
+  <si>
+    <t>商品限购数量</t>
+  </si>
+  <si>
+    <t>RoundLock</t>
+  </si>
+  <si>
+    <t>回合数解锁</t>
+  </si>
+  <si>
+    <t>MinDifficulty</t>
+  </si>
+  <si>
+    <t>难度下限</t>
   </si>
 </sst>
 </file>
@@ -1299,17 +1329,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1630,10 +1660,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+      <selection activeCell="I111" sqref="I111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2536,7 +2566,7 @@
       </c>
     </row>
     <row r="72" spans="8:11">
-      <c r="H72" s="21" t="s">
+      <c r="H72" s="9" t="s">
         <v>151</v>
       </c>
       <c r="I72" t="s">
@@ -2547,7 +2577,7 @@
       </c>
     </row>
     <row r="73" spans="8:11">
-      <c r="H73" s="22" t="s">
+      <c r="H73" s="14" t="s">
         <v>153</v>
       </c>
       <c r="I73" t="s">
@@ -2558,7 +2588,7 @@
       </c>
     </row>
     <row r="74" spans="8:11">
-      <c r="H74" s="22" t="s">
+      <c r="H74" s="14" t="s">
         <v>155</v>
       </c>
       <c r="I74" t="s">
@@ -2569,7 +2599,7 @@
       </c>
     </row>
     <row r="75" spans="8:11">
-      <c r="H75" s="22" t="s">
+      <c r="H75" s="14" t="s">
         <v>157</v>
       </c>
       <c r="I75" t="s">
@@ -2668,103 +2698,103 @@
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="13"/>
-      <c r="H83" s="23" t="s">
+      <c r="H83" s="21" t="s">
         <v>169</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
       </c>
-      <c r="K83" s="23" t="s">
+      <c r="K83" s="21" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="13"/>
-      <c r="H84" s="23" t="s">
+      <c r="H84" s="21" t="s">
         <v>136</v>
       </c>
       <c r="I84" t="s">
         <v>137</v>
       </c>
-      <c r="K84" s="23" t="s">
+      <c r="K84" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="85" spans="7:11">
       <c r="G85" s="13"/>
-      <c r="H85" s="23" t="s">
+      <c r="H85" s="21" t="s">
         <v>139</v>
       </c>
       <c r="I85" t="s">
         <v>137</v>
       </c>
-      <c r="K85" s="23" t="s">
+      <c r="K85" s="21" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="13"/>
-      <c r="H86" s="23" t="s">
+      <c r="H86" s="21" t="s">
         <v>141</v>
       </c>
       <c r="I86" t="s">
         <v>137</v>
       </c>
-      <c r="K86" s="23" t="s">
+      <c r="K86" s="21" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="87" spans="7:11">
       <c r="G87" s="13"/>
-      <c r="H87" s="23" t="s">
+      <c r="H87" s="21" t="s">
         <v>143</v>
       </c>
       <c r="I87" t="s">
         <v>137</v>
       </c>
-      <c r="K87" s="23" t="s">
+      <c r="K87" s="21" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="88" spans="7:11">
       <c r="G88" s="13"/>
-      <c r="H88" s="23" t="s">
+      <c r="H88" s="21" t="s">
         <v>145</v>
       </c>
       <c r="I88" t="s">
         <v>137</v>
       </c>
-      <c r="K88" s="23" t="s">
+      <c r="K88" s="21" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="89" spans="7:11">
       <c r="G89" s="13"/>
-      <c r="H89" s="23" t="s">
+      <c r="H89" s="21" t="s">
         <v>147</v>
       </c>
       <c r="I89" t="s">
         <v>51</v>
       </c>
-      <c r="K89" s="23" t="s">
+      <c r="K89" s="21" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="90" spans="7:11">
       <c r="G90" s="13"/>
-      <c r="H90" s="23" t="s">
+      <c r="H90" s="21" t="s">
         <v>149</v>
       </c>
       <c r="I90" t="s">
         <v>51</v>
       </c>
-      <c r="K90" s="23" t="s">
+      <c r="K90" s="21" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="91" spans="7:11">
       <c r="G91" s="13"/>
-      <c r="H91" s="21" t="s">
+      <c r="H91" s="9" t="s">
         <v>151</v>
       </c>
       <c r="I91" t="s">
@@ -2776,7 +2806,7 @@
     </row>
     <row r="92" spans="7:11">
       <c r="G92" s="13"/>
-      <c r="H92" s="22" t="s">
+      <c r="H92" s="14" t="s">
         <v>153</v>
       </c>
       <c r="I92" t="s">
@@ -2788,7 +2818,7 @@
     </row>
     <row r="93" spans="7:11">
       <c r="G93" s="13"/>
-      <c r="H93" s="22" t="s">
+      <c r="H93" s="14" t="s">
         <v>155</v>
       </c>
       <c r="I93" t="s">
@@ -2800,7 +2830,7 @@
     </row>
     <row r="94" spans="7:11">
       <c r="G94" s="13"/>
-      <c r="H94" s="22" t="s">
+      <c r="H94" s="14" t="s">
         <v>157</v>
       </c>
       <c r="I94" t="s">
@@ -2873,7 +2903,7 @@
       </c>
     </row>
     <row r="100" ht="15.5" spans="8:11">
-      <c r="H100" s="24" t="s">
+      <c r="H100" s="22" t="s">
         <v>172</v>
       </c>
       <c r="I100" t="s">
@@ -2884,7 +2914,7 @@
       </c>
     </row>
     <row r="101" ht="15.5" spans="8:11">
-      <c r="H101" s="24" t="s">
+      <c r="H101" s="22" t="s">
         <v>174</v>
       </c>
       <c r="I101" t="s">
@@ -2895,7 +2925,7 @@
       </c>
     </row>
     <row r="102" ht="15.5" spans="8:11">
-      <c r="H102" s="24" t="s">
+      <c r="H102" s="22" t="s">
         <v>176</v>
       </c>
       <c r="I102" t="s">
@@ -2950,6 +2980,64 @@
       </c>
       <c r="K106" s="1" t="s">
         <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11">
+      <c r="B107" t="s">
+        <v>188</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I107" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11">
+      <c r="H108" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I108" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108" s="16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="109" spans="8:11">
+      <c r="H109" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109" s="23" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11">
+      <c r="H110" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11">
+      <c r="H111" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I111" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K111" s="23" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="198">
   <si>
     <t>##</t>
   </si>
@@ -469,25 +469,25 @@
     <t>是否在地面上</t>
   </si>
   <si>
-    <t>atk</t>
+    <t>atkpect</t>
   </si>
   <si>
     <t>回合攻击系数</t>
   </si>
   <si>
-    <t>hp</t>
+    <t>hppect</t>
   </si>
   <si>
     <t>回合血量系数</t>
   </si>
   <si>
-    <t>phyarm</t>
+    <t>phyarmpect</t>
   </si>
   <si>
     <t>回合蓝量系数</t>
   </si>
   <si>
-    <t>magicarm</t>
+    <t>magicarmpect</t>
   </si>
   <si>
     <t>物理护甲系数</t>
@@ -1311,6 +1311,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1325,9 +1328,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1660,10 +1660,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
-      <selection activeCell="I111" sqref="I111"/>
+    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
+      <selection activeCell="B55" sqref="$A55:$XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1703,10 +1703,10 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="15"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -1825,7 +1825,7 @@
       <c r="H9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="17" t="s">
         <v>37</v>
       </c>
       <c r="K9" s="7" t="s">
@@ -1850,7 +1850,7 @@
       <c r="H11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="7" t="s">
@@ -2225,7 +2225,7 @@
       <c r="I43" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="17" t="s">
+      <c r="K43" s="18" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2236,7 +2236,7 @@
       <c r="I44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K44" s="17" t="s">
+      <c r="K44" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2247,7 +2247,7 @@
       <c r="I45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K45" s="18" t="s">
+      <c r="K45" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2258,7 +2258,7 @@
       <c r="I46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="18" t="s">
+      <c r="K46" s="19" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       <c r="I47" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="18" t="s">
+      <c r="K47" s="19" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2280,7 +2280,7 @@
       <c r="I48" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K48" s="18" t="s">
+      <c r="K48" s="19" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       <c r="I49" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K49" s="18" t="s">
+      <c r="K49" s="19" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
       <c r="I50" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K50" s="18" t="s">
+      <c r="K50" s="19" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       <c r="I51" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="K51" s="18" t="s">
+      <c r="K51" s="19" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2363,680 +2363,669 @@
     </row>
     <row r="55" spans="8:11">
       <c r="H55" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="I55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="8:11">
+      <c r="H56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="8:11">
+      <c r="H57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11">
+      <c r="B58" t="s">
+        <v>125</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="I58" t="s">
         <v>46</v>
       </c>
-      <c r="K55" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11">
-      <c r="H56" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="8:11">
-      <c r="H57" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K57" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="8:11">
-      <c r="H58" s="1" t="s">
+      <c r="K58" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="8:11">
+      <c r="H59" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I59" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="8:11">
+      <c r="H60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I60" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="K58" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11">
-      <c r="B59" t="s">
-        <v>125</v>
-      </c>
-      <c r="H59" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I59" t="s">
+      <c r="K60" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="13"/>
+      <c r="H61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" t="s">
         <v>46</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="8:11">
-      <c r="H60" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="8:11">
-      <c r="H61" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K61" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11">
-      <c r="B62" t="s">
-        <v>129</v>
-      </c>
+      <c r="K61" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="7:11">
       <c r="G62" s="13"/>
-      <c r="H62" s="1" t="s">
-        <v>130</v>
+      <c r="H62" s="14" t="s">
+        <v>132</v>
       </c>
       <c r="I62" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="14" t="s">
-        <v>131</v>
+      <c r="K62" s="20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="63" spans="7:11">
       <c r="G63" s="13"/>
       <c r="H63" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>133</v>
+        <v>22</v>
+      </c>
+      <c r="K63" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="7:11">
-      <c r="G64" s="13"/>
-      <c r="H64" s="14" t="s">
-        <v>134</v>
+      <c r="G64" s="15"/>
+      <c r="H64" s="9" t="s">
+        <v>136</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="19" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="65" spans="7:11">
-      <c r="G65" s="20"/>
+      <c r="G65" s="15"/>
       <c r="H65" s="9" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I65" t="s">
         <v>137</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="20"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="66" spans="6:11">
+      <c r="F66" s="13"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I66" t="s">
         <v>137</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="6:11">
-      <c r="F67" s="13"/>
-      <c r="G67" s="20"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="15"/>
       <c r="H67" s="9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I67" t="s">
         <v>137</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="7:11">
-      <c r="G68" s="20"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I68" t="s">
         <v>137</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="7:11">
-      <c r="G69" s="20"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I69" t="s">
         <v>137</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="70" spans="7:11">
-      <c r="G70" s="20"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I70" t="s">
         <v>137</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="71" spans="7:11">
-      <c r="G71" s="20"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="8:11">
       <c r="H71" s="9" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I71" t="s">
-        <v>137</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>150</v>
+        <v>22</v>
+      </c>
+      <c r="K71" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="8:11">
-      <c r="H72" s="9" t="s">
-        <v>151</v>
+      <c r="H72" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="I72" t="s">
-        <v>137</v>
-      </c>
-      <c r="K72" s="19" t="s">
-        <v>152</v>
+        <v>22</v>
+      </c>
+      <c r="K72" s="20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="73" spans="8:11">
       <c r="H73" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I73" t="s">
-        <v>137</v>
-      </c>
-      <c r="K73" s="19" t="s">
-        <v>154</v>
+        <v>22</v>
+      </c>
+      <c r="K73" s="20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="74" spans="8:11">
       <c r="H74" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I74" t="s">
-        <v>137</v>
-      </c>
-      <c r="K74" s="19" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="75" spans="8:11">
+        <v>22</v>
+      </c>
+      <c r="K74" s="20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="7:11">
+      <c r="G75" s="13"/>
       <c r="H75" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I75" t="s">
         <v>137</v>
       </c>
-      <c r="K75" s="19" t="s">
-        <v>158</v>
+      <c r="K75" s="20" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="7:11">
       <c r="G76" s="13"/>
       <c r="H76" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I76" t="s">
         <v>137</v>
       </c>
-      <c r="K76" s="19" t="s">
-        <v>160</v>
+      <c r="K76" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="7:11">
       <c r="G77" s="13"/>
       <c r="H77" s="14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I77" t="s">
-        <v>137</v>
-      </c>
-      <c r="K77" s="19" t="s">
-        <v>162</v>
+        <v>46</v>
+      </c>
+      <c r="K77" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="78" spans="7:11">
       <c r="G78" s="13"/>
       <c r="H78" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I78" t="s">
         <v>46</v>
       </c>
-      <c r="K78" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="79" spans="7:11">
+      <c r="K78" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11">
+      <c r="B79" t="s">
+        <v>167</v>
+      </c>
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="I79" t="s">
         <v>46</v>
       </c>
-      <c r="K79" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="80" spans="2:11">
-      <c r="B80" t="s">
-        <v>167</v>
-      </c>
+      <c r="K79" s="20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="7:11">
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I80" t="s">
         <v>46</v>
       </c>
-      <c r="K80" s="19" t="s">
-        <v>168</v>
+      <c r="K80" s="20" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="81" spans="7:11">
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81" s="19" t="s">
-        <v>133</v>
+        <v>22</v>
+      </c>
+      <c r="K81" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="82" spans="7:11">
       <c r="G82" s="13"/>
-      <c r="H82" s="14" t="s">
-        <v>134</v>
+      <c r="H82" s="21" t="s">
+        <v>169</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
-      <c r="K82" s="19" t="s">
-        <v>135</v>
+      <c r="K82" s="21" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="13"/>
       <c r="H83" s="21" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>137</v>
       </c>
       <c r="K83" s="21" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="13"/>
       <c r="H84" s="21" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I84" t="s">
         <v>137</v>
       </c>
       <c r="K84" s="21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="85" spans="7:11">
       <c r="G85" s="13"/>
       <c r="H85" s="21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I85" t="s">
         <v>137</v>
       </c>
       <c r="K85" s="21" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="13"/>
       <c r="H86" s="21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I86" t="s">
         <v>137</v>
       </c>
       <c r="K86" s="21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="87" spans="7:11">
       <c r="G87" s="13"/>
       <c r="H87" s="21" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I87" t="s">
         <v>137</v>
       </c>
       <c r="K87" s="21" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="7:11">
       <c r="G88" s="13"/>
       <c r="H88" s="21" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I88" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="K88" s="21" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="7:11">
       <c r="G89" s="13"/>
       <c r="H89" s="21" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I89" t="s">
         <v>51</v>
       </c>
       <c r="K89" s="21" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="7:11">
       <c r="G90" s="13"/>
-      <c r="H90" s="21" t="s">
-        <v>149</v>
+      <c r="H90" s="9" t="s">
+        <v>151</v>
       </c>
       <c r="I90" t="s">
-        <v>51</v>
-      </c>
-      <c r="K90" s="21" t="s">
-        <v>150</v>
+        <v>22</v>
+      </c>
+      <c r="K90" s="20" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="7:11">
       <c r="G91" s="13"/>
-      <c r="H91" s="9" t="s">
-        <v>151</v>
+      <c r="H91" s="14" t="s">
+        <v>153</v>
       </c>
       <c r="I91" t="s">
-        <v>137</v>
-      </c>
-      <c r="K91" s="19" t="s">
-        <v>152</v>
+        <v>22</v>
+      </c>
+      <c r="K91" s="20" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="7:11">
       <c r="G92" s="13"/>
       <c r="H92" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="I92" t="s">
-        <v>137</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>154</v>
+        <v>22</v>
+      </c>
+      <c r="K92" s="20" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="7:11">
       <c r="G93" s="13"/>
       <c r="H93" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I93" t="s">
-        <v>137</v>
-      </c>
-      <c r="K93" s="19" t="s">
-        <v>156</v>
+        <v>22</v>
+      </c>
+      <c r="K93" s="20" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="94" spans="7:11">
       <c r="G94" s="13"/>
       <c r="H94" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I94" t="s">
         <v>137</v>
       </c>
-      <c r="K94" s="19" t="s">
-        <v>158</v>
+      <c r="K94" s="20" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="95" spans="7:11">
       <c r="G95" s="13"/>
       <c r="H95" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I95" t="s">
         <v>137</v>
       </c>
-      <c r="K95" s="19" t="s">
-        <v>160</v>
+      <c r="K95" s="20" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="7:11">
       <c r="G96" s="13"/>
       <c r="H96" s="14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I96" t="s">
-        <v>137</v>
-      </c>
-      <c r="K96" s="19" t="s">
-        <v>162</v>
+        <v>46</v>
+      </c>
+      <c r="K96" s="20" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="97" spans="7:11">
       <c r="G97" s="13"/>
       <c r="H97" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I97" t="s">
         <v>46</v>
       </c>
-      <c r="K97" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" spans="7:11">
-      <c r="G98" s="13"/>
-      <c r="H98" s="14" t="s">
-        <v>165</v>
+      <c r="K97" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="98" ht="15.5" spans="2:11">
+      <c r="B98" t="s">
+        <v>170</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
-      </c>
-      <c r="K98" s="19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="99" ht="15.5" spans="2:11">
-      <c r="B99" t="s">
-        <v>170</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>171</v>
+        <v>22</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" ht="15.5" spans="8:11">
+      <c r="H99" s="22" t="s">
+        <v>172</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="K99" s="8" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="100" ht="15.5" spans="8:11">
       <c r="H100" s="22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I100" t="s">
         <v>137</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" ht="15.5" spans="8:11">
       <c r="H101" s="22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="I101" t="s">
         <v>137</v>
       </c>
       <c r="K101" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" ht="15.5" spans="8:11">
-      <c r="H102" s="22" t="s">
-        <v>176</v>
-      </c>
-      <c r="I102" t="s">
-        <v>137</v>
-      </c>
-      <c r="K102" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="103" spans="8:11">
-      <c r="H103" s="1" t="s">
+    <row r="102" spans="8:11">
+      <c r="H102" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I103" s="16" t="s">
+      <c r="I102" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="K103" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="104" spans="2:11">
-      <c r="B104" t="s">
+    <row r="103" spans="2:11">
+      <c r="B103" t="s">
         <v>181</v>
       </c>
-      <c r="H104" s="8" t="s">
+      <c r="H103" s="8" t="s">
         <v>182</v>
       </c>
+      <c r="I103" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11">
+      <c r="H104" s="5" t="s">
+        <v>184</v>
+      </c>
       <c r="I104" s="6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K104" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="105" spans="8:11">
       <c r="H105" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K105" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="106" spans="8:11">
-      <c r="H106" s="5" t="s">
-        <v>186</v>
+      <c r="K105" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11">
+      <c r="B106" t="s">
+        <v>188</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>189</v>
       </c>
       <c r="I106" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K106" s="23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="107" spans="8:11">
+      <c r="H107" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I107" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" t="s">
-        <v>188</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>190</v>
+      <c r="K107" s="17" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="8:11">
-      <c r="H108" s="24" t="s">
-        <v>45</v>
+      <c r="H108" s="23" t="s">
+        <v>192</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K108" s="16" t="s">
-        <v>191</v>
+        <v>22</v>
+      </c>
+      <c r="K108" s="23" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="109" spans="8:11">
       <c r="H109" s="23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K109" s="23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="110" spans="8:11">
       <c r="H110" s="23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K110" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="8:11">
-      <c r="H111" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K111" s="23" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="198">
   <si>
     <t>##</t>
   </si>
@@ -424,6 +424,9 @@
     <t>星级</t>
   </si>
   <si>
+    <t>unit_weight</t>
+  </si>
+  <si>
     <t>position_x</t>
   </si>
   <si>
@@ -457,10 +460,10 @@
     <t>朝向z</t>
   </si>
   <si>
-    <t>israndompos</t>
-  </si>
-  <si>
-    <t>是否随机坐标</t>
+    <t>issummoned</t>
+  </si>
+  <si>
+    <t>是否是召唤怪</t>
   </si>
   <si>
     <t>isground</t>
@@ -521,9 +524,6 @@
   </si>
   <si>
     <t>种怪索引</t>
-  </si>
-  <si>
-    <t>unit_weight</t>
   </si>
   <si>
     <t>Dota.UnitStarUpConfigBean</t>
@@ -1311,26 +1311,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1660,10 +1660,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L110"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" workbookViewId="0">
-      <selection activeCell="B55" sqref="$A55:$XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2470,562 +2470,576 @@
       </c>
     </row>
     <row r="64" spans="7:11">
-      <c r="G64" s="15"/>
-      <c r="H64" s="9" t="s">
+      <c r="G64" s="13"/>
+      <c r="H64" s="15" t="s">
         <v>136</v>
       </c>
       <c r="I64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11">
+      <c r="G65" s="21"/>
+      <c r="H65" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="K64" s="9" t="s">
+      <c r="I65" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="65" spans="7:11">
-      <c r="G65" s="15"/>
-      <c r="H65" s="9" t="s">
+      <c r="K65" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="I65" t="s">
-        <v>137</v>
-      </c>
-      <c r="K65" s="9" t="s">
+    </row>
+    <row r="66" spans="7:11">
+      <c r="G66" s="21"/>
+      <c r="H66" s="9" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="66" spans="6:11">
-      <c r="F66" s="13"/>
-      <c r="G66" s="15"/>
-      <c r="H66" s="9" t="s">
+      <c r="I66" t="s">
+        <v>138</v>
+      </c>
+      <c r="K66" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I66" t="s">
-        <v>137</v>
-      </c>
-      <c r="K66" s="9" t="s">
+    </row>
+    <row r="67" spans="6:11">
+      <c r="F67" s="13"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="15"/>
-      <c r="H67" s="9" t="s">
+      <c r="I67" t="s">
+        <v>138</v>
+      </c>
+      <c r="K67" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I67" t="s">
-        <v>137</v>
-      </c>
-      <c r="K67" s="9" t="s">
+    </row>
+    <row r="68" spans="7:11">
+      <c r="G68" s="21"/>
+      <c r="H68" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="68" spans="7:11">
-      <c r="G68" s="15"/>
-      <c r="H68" s="9" t="s">
+      <c r="I68" t="s">
+        <v>138</v>
+      </c>
+      <c r="K68" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I68" t="s">
-        <v>137</v>
-      </c>
-      <c r="K68" s="9" t="s">
+    </row>
+    <row r="69" spans="7:11">
+      <c r="G69" s="21"/>
+      <c r="H69" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="15"/>
-      <c r="H69" s="9" t="s">
+      <c r="I69" t="s">
+        <v>138</v>
+      </c>
+      <c r="K69" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I69" t="s">
-        <v>137</v>
-      </c>
-      <c r="K69" s="9" t="s">
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="21"/>
+      <c r="H70" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="15"/>
-      <c r="H70" s="9" t="s">
+      <c r="I70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I70" t="s">
-        <v>137</v>
-      </c>
-      <c r="K70" s="9" t="s">
+    </row>
+    <row r="71" spans="7:11">
+      <c r="G71" s="21"/>
+      <c r="H71" s="9" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="71" spans="8:11">
-      <c r="H71" s="9" t="s">
+      <c r="I71" t="s">
+        <v>138</v>
+      </c>
+      <c r="K71" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="I71" t="s">
-        <v>22</v>
-      </c>
-      <c r="K71" s="20" t="s">
+    </row>
+    <row r="72" spans="8:11">
+      <c r="H72" s="9" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="72" spans="8:11">
-      <c r="H72" s="14" t="s">
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" s="20" t="s">
         <v>153</v>
-      </c>
-      <c r="I72" t="s">
-        <v>22</v>
-      </c>
-      <c r="K72" s="20" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="73" spans="8:11">
       <c r="H73" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="I73" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="20" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="74" spans="8:11">
       <c r="H74" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="I74" t="s">
-        <v>22</v>
-      </c>
-      <c r="K74" s="20" t="s">
+    </row>
+    <row r="75" spans="8:11">
+      <c r="H75" s="14" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="75" spans="7:11">
-      <c r="G75" s="13"/>
-      <c r="H75" s="14" t="s">
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="20" t="s">
         <v>159</v>
-      </c>
-      <c r="I75" t="s">
-        <v>137</v>
-      </c>
-      <c r="K75" s="20" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="76" spans="7:11">
       <c r="G76" s="13"/>
       <c r="H76" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I76" t="s">
+        <v>138</v>
+      </c>
+      <c r="K76" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="I76" t="s">
-        <v>137</v>
-      </c>
-      <c r="K76" s="20" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="77" spans="7:11">
       <c r="G77" s="13"/>
       <c r="H77" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I77" t="s">
+        <v>138</v>
+      </c>
+      <c r="K77" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="I77" t="s">
-        <v>46</v>
-      </c>
-      <c r="K77" s="20" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="78" spans="7:11">
       <c r="G78" s="13"/>
       <c r="H78" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I78" t="s">
         <v>46</v>
       </c>
       <c r="K78" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11">
-      <c r="B79" t="s">
-        <v>167</v>
-      </c>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="7:11">
       <c r="G79" s="13"/>
       <c r="H79" s="14" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="I79" t="s">
         <v>46</v>
       </c>
       <c r="K79" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11">
+      <c r="B80" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="80" spans="7:11">
       <c r="G80" s="13"/>
       <c r="H80" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I80" t="s">
         <v>46</v>
       </c>
       <c r="K80" s="20" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
     </row>
     <row r="81" spans="7:11">
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K81" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="82" spans="7:11">
       <c r="G82" s="13"/>
-      <c r="H82" s="21" t="s">
-        <v>169</v>
+      <c r="H82" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="I82" t="s">
         <v>22</v>
       </c>
-      <c r="K82" s="21" t="s">
-        <v>57</v>
+      <c r="K82" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="13"/>
-      <c r="H83" s="21" t="s">
+      <c r="H83" s="15" t="s">
         <v>136</v>
       </c>
       <c r="I83" t="s">
-        <v>137</v>
-      </c>
-      <c r="K83" s="21" t="s">
-        <v>138</v>
+        <v>22</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="13"/>
-      <c r="H84" s="21" t="s">
+      <c r="H84" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="I84" t="s">
+        <v>138</v>
+      </c>
+      <c r="K84" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="I84" t="s">
-        <v>137</v>
-      </c>
-      <c r="K84" s="21" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="85" spans="7:11">
       <c r="G85" s="13"/>
-      <c r="H85" s="21" t="s">
+      <c r="H85" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I85" t="s">
+        <v>138</v>
+      </c>
+      <c r="K85" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="I85" t="s">
-        <v>137</v>
-      </c>
-      <c r="K85" s="21" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="13"/>
-      <c r="H86" s="21" t="s">
+      <c r="H86" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="I86" t="s">
+        <v>138</v>
+      </c>
+      <c r="K86" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="I86" t="s">
-        <v>137</v>
-      </c>
-      <c r="K86" s="21" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="87" spans="7:11">
       <c r="G87" s="13"/>
-      <c r="H87" s="21" t="s">
+      <c r="H87" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="I87" t="s">
+        <v>138</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>145</v>
-      </c>
-      <c r="I87" t="s">
-        <v>137</v>
-      </c>
-      <c r="K87" s="21" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="88" spans="7:11">
       <c r="G88" s="13"/>
-      <c r="H88" s="21" t="s">
+      <c r="H88" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I88" t="s">
+        <v>138</v>
+      </c>
+      <c r="K88" s="15" t="s">
         <v>147</v>
-      </c>
-      <c r="I88" t="s">
-        <v>51</v>
-      </c>
-      <c r="K88" s="21" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="89" spans="7:11">
       <c r="G89" s="13"/>
-      <c r="H89" s="21" t="s">
+      <c r="H89" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="9" t="s">
         <v>149</v>
-      </c>
-      <c r="I89" t="s">
-        <v>51</v>
-      </c>
-      <c r="K89" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="90" spans="7:11">
       <c r="G90" s="13"/>
-      <c r="H90" s="9" t="s">
+      <c r="H90" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="I90" t="s">
+        <v>51</v>
+      </c>
+      <c r="K90" s="15" t="s">
         <v>151</v>
-      </c>
-      <c r="I90" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="20" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="91" spans="7:11">
       <c r="G91" s="13"/>
-      <c r="H91" s="14" t="s">
+      <c r="H91" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" s="20" t="s">
         <v>153</v>
-      </c>
-      <c r="I91" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="20" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="92" spans="7:11">
       <c r="G92" s="13"/>
       <c r="H92" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="I92" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" s="20" t="s">
         <v>155</v>
-      </c>
-      <c r="I92" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="20" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="93" spans="7:11">
       <c r="G93" s="13"/>
       <c r="H93" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" s="20" t="s">
         <v>157</v>
-      </c>
-      <c r="I93" t="s">
-        <v>22</v>
-      </c>
-      <c r="K93" s="20" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="94" spans="7:11">
       <c r="G94" s="13"/>
       <c r="H94" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="I94" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="20" t="s">
         <v>159</v>
-      </c>
-      <c r="I94" t="s">
-        <v>137</v>
-      </c>
-      <c r="K94" s="20" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="95" spans="7:11">
       <c r="G95" s="13"/>
       <c r="H95" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I95" t="s">
+        <v>138</v>
+      </c>
+      <c r="K95" s="20" t="s">
         <v>161</v>
-      </c>
-      <c r="I95" t="s">
-        <v>137</v>
-      </c>
-      <c r="K95" s="20" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="96" spans="7:11">
       <c r="G96" s="13"/>
       <c r="H96" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I96" t="s">
+        <v>138</v>
+      </c>
+      <c r="K96" s="20" t="s">
         <v>163</v>
-      </c>
-      <c r="I96" t="s">
-        <v>46</v>
-      </c>
-      <c r="K96" s="20" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="97" spans="7:11">
       <c r="G97" s="13"/>
       <c r="H97" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I97" t="s">
         <v>46</v>
       </c>
       <c r="K97" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="98" spans="7:11">
+      <c r="G98" s="13"/>
+      <c r="H98" s="14" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="98" ht="15.5" spans="2:11">
-      <c r="B98" t="s">
+      <c r="I98" t="s">
+        <v>46</v>
+      </c>
+      <c r="K98" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="99" ht="15.5" spans="2:11">
+      <c r="B99" t="s">
         <v>170</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I98" t="s">
-        <v>22</v>
-      </c>
-      <c r="K98" s="10" t="s">
+      <c r="I99" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" s="10" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="99" ht="15.5" spans="8:11">
-      <c r="H99" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="I99" t="s">
-        <v>137</v>
-      </c>
-      <c r="K99" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="100" ht="15.5" spans="8:11">
       <c r="H100" s="22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I100" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K100" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" ht="15.5" spans="8:11">
       <c r="H101" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" ht="15.5" spans="8:11">
+      <c r="H102" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="I101" t="s">
-        <v>137</v>
-      </c>
-      <c r="K101" s="8" t="s">
+      <c r="I102" t="s">
+        <v>138</v>
+      </c>
+      <c r="K102" s="8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="102" spans="8:11">
-      <c r="H102" s="1" t="s">
+    <row r="103" spans="8:11">
+      <c r="H103" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I102" s="17" t="s">
+      <c r="I103" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="K102" s="1" t="s">
+      <c r="K103" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="2:11">
-      <c r="B103" t="s">
+    <row r="104" spans="2:11">
+      <c r="B104" t="s">
         <v>181</v>
       </c>
-      <c r="H103" s="8" t="s">
+      <c r="H104" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="I103" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K103" s="7" t="s">
+      <c r="I104" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="104" spans="8:11">
-      <c r="H104" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K104" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="105" spans="8:11">
       <c r="H105" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K105" s="1" t="s">
+      <c r="K105" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="106" spans="8:11">
+      <c r="H106" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="I106" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="2:11">
-      <c r="B106" t="s">
+    <row r="107" spans="2:11">
+      <c r="B107" t="s">
         <v>188</v>
       </c>
-      <c r="H106" s="23" t="s">
+      <c r="H107" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="I106" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K106" s="23" t="s">
+      <c r="I107" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="23" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="107" spans="8:11">
-      <c r="H107" s="24" t="s">
+    <row r="108" spans="8:11">
+      <c r="H108" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="I107" s="6" t="s">
+      <c r="I108" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K107" s="17" t="s">
+      <c r="K108" s="17" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="108" spans="8:11">
-      <c r="H108" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="I108" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K108" s="23" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="109" spans="8:11">
       <c r="H109" s="23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>22</v>
       </c>
       <c r="K109" s="23" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="110" spans="8:11">
       <c r="H110" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="I110" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11">
+      <c r="H111" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="I110" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K110" s="23" t="s">
+      <c r="I111" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K111" s="23" t="s">
         <v>197</v>
       </c>
     </row>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="208">
   <si>
     <t>##</t>
   </si>
@@ -524,6 +524,36 @@
   </si>
   <si>
     <t>种怪索引</t>
+  </si>
+  <si>
+    <t>challengelevel</t>
+  </si>
+  <si>
+    <t>挑战等级</t>
+  </si>
+  <si>
+    <t>wood_min</t>
+  </si>
+  <si>
+    <t>单个怪物击杀木材min</t>
+  </si>
+  <si>
+    <t>wood_max</t>
+  </si>
+  <si>
+    <t>单个怪物击杀木材max</t>
+  </si>
+  <si>
+    <t>soulcrystal_min</t>
+  </si>
+  <si>
+    <t>单个怪物击杀魂晶min</t>
+  </si>
+  <si>
+    <t>soulcrystal_max</t>
+  </si>
+  <si>
+    <t>单个怪物击杀魂晶max</t>
   </si>
   <si>
     <t>Dota.UnitStarUpConfigBean</t>
@@ -1335,11 +1365,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1660,10 +1690,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L111"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B53" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64:K64"/>
+    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
+      <selection activeCell="H81" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2677,370 +2707,431 @@
     <row r="81" spans="7:11">
       <c r="G81" s="13"/>
       <c r="H81" s="14" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
-      </c>
-      <c r="K81" s="20" t="s">
-        <v>133</v>
+        <v>22</v>
+      </c>
+      <c r="K81" s="23" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="7:11">
       <c r="G82" s="13"/>
       <c r="H82" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="K82" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="13"/>
-      <c r="H83" s="15" t="s">
-        <v>136</v>
+      <c r="H83" s="14" t="s">
+        <v>134</v>
       </c>
       <c r="I83" t="s">
         <v>22</v>
       </c>
-      <c r="K83" s="15" t="s">
-        <v>57</v>
+      <c r="K83" s="20" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="13"/>
       <c r="H84" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I84" t="s">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="K84" s="15" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="7:11">
       <c r="G85" s="13"/>
       <c r="H85" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I85" t="s">
         <v>138</v>
       </c>
       <c r="K85" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="13"/>
       <c r="H86" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I86" t="s">
         <v>138</v>
       </c>
       <c r="K86" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="7:11">
       <c r="G87" s="13"/>
       <c r="H87" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I87" t="s">
         <v>138</v>
       </c>
       <c r="K87" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88" spans="7:11">
       <c r="G88" s="13"/>
       <c r="H88" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I88" t="s">
         <v>138</v>
       </c>
       <c r="K88" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="7:11">
       <c r="G89" s="13"/>
-      <c r="H89" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J89" s="1"/>
-      <c r="K89" s="9" t="s">
-        <v>149</v>
+      <c r="H89" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="I89" t="s">
+        <v>138</v>
+      </c>
+      <c r="K89" s="15" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="90" spans="7:11">
       <c r="G90" s="13"/>
-      <c r="H90" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="I90" t="s">
+      <c r="H90" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K90" s="15" t="s">
-        <v>151</v>
+      <c r="J90" s="1"/>
+      <c r="K90" s="9" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="7:11">
       <c r="G91" s="13"/>
-      <c r="H91" s="9" t="s">
-        <v>152</v>
+      <c r="H91" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
-      </c>
-      <c r="K91" s="20" t="s">
-        <v>153</v>
+        <v>51</v>
+      </c>
+      <c r="K91" s="15" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="7:11">
       <c r="G92" s="13"/>
-      <c r="H92" s="14" t="s">
-        <v>154</v>
+      <c r="H92" s="9" t="s">
+        <v>152</v>
       </c>
       <c r="I92" t="s">
         <v>22</v>
       </c>
       <c r="K92" s="20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="7:11">
       <c r="G93" s="13"/>
       <c r="H93" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I93" t="s">
         <v>22</v>
       </c>
       <c r="K93" s="20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="7:11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="94" spans="5:11">
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
       <c r="G94" s="13"/>
       <c r="H94" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="I94" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="8:11">
+      <c r="H95" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="I94" t="s">
-        <v>22</v>
-      </c>
-      <c r="K94" s="20" t="s">
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" s="20" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="95" spans="7:11">
-      <c r="G95" s="13"/>
-      <c r="H95" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="I95" t="s">
-        <v>138</v>
-      </c>
-      <c r="K95" s="20" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="96" spans="7:11">
       <c r="G96" s="13"/>
       <c r="H96" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I96" t="s">
         <v>138</v>
       </c>
       <c r="K96" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="97" spans="7:11">
       <c r="G97" s="13"/>
       <c r="H97" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="K97" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" spans="7:11">
       <c r="G98" s="13"/>
       <c r="H98" s="14" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
-      </c>
-      <c r="K98" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="99" ht="15.5" spans="2:11">
-      <c r="B99" t="s">
-        <v>170</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>171</v>
+        <v>138</v>
+      </c>
+      <c r="K98" s="23" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="99" spans="7:11">
+      <c r="G99" s="13"/>
+      <c r="H99" s="14" t="s">
+        <v>174</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="100" ht="15.5" spans="8:11">
-      <c r="H100" s="22" t="s">
-        <v>172</v>
+        <v>138</v>
+      </c>
+      <c r="K99" s="23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="7:11">
+      <c r="G100" s="13"/>
+      <c r="H100" s="14" t="s">
+        <v>176</v>
       </c>
       <c r="I100" t="s">
         <v>138</v>
       </c>
-      <c r="K100" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="101" ht="15.5" spans="8:11">
-      <c r="H101" s="22" t="s">
-        <v>174</v>
+      <c r="K100" s="23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="101" spans="7:11">
+      <c r="G101" s="13"/>
+      <c r="H101" s="14" t="s">
+        <v>178</v>
       </c>
       <c r="I101" t="s">
         <v>138</v>
       </c>
-      <c r="K101" s="8" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="102" ht="15.5" spans="8:11">
-      <c r="H102" s="22" t="s">
-        <v>176</v>
+      <c r="K101" s="23" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="102" spans="7:11">
+      <c r="G102" s="13"/>
+      <c r="H102" s="14" t="s">
+        <v>164</v>
       </c>
       <c r="I102" t="s">
+        <v>46</v>
+      </c>
+      <c r="K102" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="7:11">
+      <c r="G103" s="13"/>
+      <c r="H103" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="I103" t="s">
+        <v>46</v>
+      </c>
+      <c r="K103" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="104" ht="15.5" spans="2:11">
+      <c r="B104" t="s">
+        <v>180</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="I104" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" ht="15.5" spans="8:11">
+      <c r="H105" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I105" t="s">
         <v>138</v>
       </c>
-      <c r="K102" s="8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="103" spans="8:11">
-      <c r="H103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I103" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11">
-      <c r="B104" t="s">
-        <v>181</v>
-      </c>
-      <c r="H104" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K104" s="7" t="s">
+      <c r="K105" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="8:11">
-      <c r="H105" s="5" t="s">
+    <row r="106" ht="15.5" spans="8:11">
+      <c r="H106" s="22" t="s">
         <v>184</v>
       </c>
-      <c r="I105" s="6" t="s">
+      <c r="I106" t="s">
+        <v>138</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="107" ht="15.5" spans="8:11">
+      <c r="H107" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="I107" t="s">
+        <v>138</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="108" spans="8:11">
+      <c r="H108" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="I108" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="109" spans="2:11">
+      <c r="B109" t="s">
+        <v>191</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I109" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K109" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="110" spans="8:11">
+      <c r="H110" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="I110" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K105" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="106" spans="8:11">
-      <c r="H106" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="I106" s="6" t="s">
+      <c r="K110" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="8:11">
+      <c r="H111" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I111" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K106" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="107" spans="2:11">
-      <c r="B107" t="s">
-        <v>188</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="I107" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" s="23" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="108" spans="8:11">
-      <c r="H108" s="24" t="s">
+      <c r="K111" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="2:11">
+      <c r="B112" t="s">
+        <v>198</v>
+      </c>
+      <c r="H112" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="I112" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K112" s="24" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="8:11">
+      <c r="H113" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I108" s="6" t="s">
+      <c r="I113" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K108" s="17" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="109" spans="8:11">
-      <c r="H109" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K109" s="23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="110" spans="8:11">
-      <c r="H110" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="I110" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K110" s="23" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="8:11">
-      <c r="H111" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K111" s="23" t="s">
-        <v>197</v>
+      <c r="K113" s="17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11">
+      <c r="H114" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="I114" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K114" s="24" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="115" spans="8:11">
+      <c r="H115" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="I115" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11">
+      <c r="H116" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="I116" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K116" s="24" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="210">
   <si>
     <t>##</t>
   </si>
@@ -424,6 +424,9 @@
     <t>星级</t>
   </si>
   <si>
+    <t>level</t>
+  </si>
+  <si>
     <t>unit_weight</t>
   </si>
   <si>
@@ -460,10 +463,13 @@
     <t>朝向z</t>
   </si>
   <si>
-    <t>issummoned</t>
-  </si>
-  <si>
-    <t>是否是召唤怪</t>
+    <t>enemycreatetype</t>
+  </si>
+  <si>
+    <t>EEnum.EEnemyCreateType</t>
+  </si>
+  <si>
+    <t>怪物创建类型</t>
   </si>
   <si>
     <t>isground</t>
@@ -508,6 +514,30 @@
     <t>单个怪物击杀金币max</t>
   </si>
   <si>
+    <t>wood_min</t>
+  </si>
+  <si>
+    <t>单个怪物击杀木材min</t>
+  </si>
+  <si>
+    <t>wood_max</t>
+  </si>
+  <si>
+    <t>单个怪物击杀木材max</t>
+  </si>
+  <si>
+    <t>soulcrystal_min</t>
+  </si>
+  <si>
+    <t>单个怪物击杀魂晶min</t>
+  </si>
+  <si>
+    <t>soulcrystal_max</t>
+  </si>
+  <si>
+    <t>单个怪物击杀魂晶max</t>
+  </si>
+  <si>
     <t>elite_drop_index</t>
   </si>
   <si>
@@ -530,30 +560,6 @@
   </si>
   <si>
     <t>挑战等级</t>
-  </si>
-  <si>
-    <t>wood_min</t>
-  </si>
-  <si>
-    <t>单个怪物击杀木材min</t>
-  </si>
-  <si>
-    <t>wood_max</t>
-  </si>
-  <si>
-    <t>单个怪物击杀木材max</t>
-  </si>
-  <si>
-    <t>soulcrystal_min</t>
-  </si>
-  <si>
-    <t>单个怪物击杀魂晶min</t>
-  </si>
-  <si>
-    <t>soulcrystal_max</t>
-  </si>
-  <si>
-    <t>单个怪物击杀魂晶max</t>
   </si>
   <si>
     <t>Dota.UnitStarUpConfigBean</t>
@@ -1295,13 +1301,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1341,35 +1350,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1690,10 +1699,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B65" workbookViewId="0">
-      <selection activeCell="H81" sqref="H81"/>
+    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
+      <selection activeCell="H56" sqref="H$1:K$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1703,13 +1712,13 @@
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.625" customWidth="1"/>
-    <col min="10" max="10" width="10.375" customWidth="1"/>
+    <col min="9" max="9" width="23.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="19.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1730,25 +1739,25 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
       <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1777,10 +1786,10 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1791,13 +1800,13 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="I4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1805,10 +1814,10 @@
       <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="9" t="s">
+      <c r="I5" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1819,10 +1828,10 @@
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="I6" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1830,10 +1839,10 @@
       <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1841,24 +1850,24 @@
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="8:11">
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="8" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1866,40 +1875,40 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="I10" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="8:11">
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="H12" s="4" t="s">
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="H12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="I12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1907,10 +1916,10 @@
       <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1918,21 +1927,21 @@
       <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="9" t="s">
+      <c r="I14" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="8:11">
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="9" t="s">
+      <c r="I15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1940,10 +1949,10 @@
       <c r="H16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1951,24 +1960,24 @@
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="I17" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="8:11">
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="8" t="s">
+      <c r="I18" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1976,24 +1985,24 @@
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="I19" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="8:11">
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="9" t="s">
+      <c r="I20" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2001,142 +2010,142 @@
       <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="7" t="s">
+      <c r="H21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="I21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="9" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="8:11">
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="8:11">
-      <c r="H23" s="7" t="s">
+      <c r="H23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="8" t="s">
+      <c r="I23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="8:11">
-      <c r="H24" s="7" t="s">
+      <c r="H24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="8" t="s">
+      <c r="K24" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="8:11">
-      <c r="H25" s="7" t="s">
+      <c r="H25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="8" t="s">
+      <c r="I25" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="9" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="8:11">
-      <c r="H26" s="7" t="s">
+      <c r="H26" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="8" t="s">
+      <c r="I26" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="8:11">
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="9" t="s">
+      <c r="I27" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="8:11">
-      <c r="H28" s="9" t="s">
+      <c r="H28" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="I28" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="K28" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="8:11">
-      <c r="H29" s="9" t="s">
+      <c r="H29" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="9" t="s">
+      <c r="I29" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="8:11">
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="6" t="s">
+      <c r="I30" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="9" t="s">
+      <c r="K30" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="8:11">
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="9" t="s">
+      <c r="I31" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="8:11">
-      <c r="H32" s="8" t="s">
+      <c r="H32" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="9" t="s">
+      <c r="I32" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="8:11">
-      <c r="H33" s="8" t="s">
+      <c r="H33" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -2144,35 +2153,35 @@
       </c>
     </row>
     <row r="34" spans="8:11">
-      <c r="H34" s="8" t="s">
+      <c r="H34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="9" t="s">
+      <c r="I34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="8:11">
-      <c r="H35" s="8" t="s">
+      <c r="H35" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="9" t="s">
+      <c r="I35" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="8:11">
-      <c r="H36" s="8" t="s">
+      <c r="H36" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I36" s="6" t="s">
+      <c r="I36" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="9" t="s">
+      <c r="K36" s="10" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2180,10 +2189,10 @@
       <c r="H37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I37" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2191,57 +2200,57 @@
       <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="H38" s="10" t="s">
+      <c r="H38" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="10" t="s">
+      <c r="I38" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" ht="15.5" spans="8:11">
-      <c r="H39" s="10" t="s">
+      <c r="H39" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="6" t="s">
+      <c r="I39" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K39" s="10" t="s">
+      <c r="K39" s="11" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" ht="15.5" spans="8:11">
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="10" t="s">
+      <c r="I40" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="11" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" ht="15.5" spans="8:11">
-      <c r="H41" s="10" t="s">
+      <c r="H41" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="10" t="s">
+      <c r="I41" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="11" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" ht="15.5" spans="8:11">
-      <c r="H42" s="10" t="s">
+      <c r="H42" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="10" t="s">
+      <c r="I42" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2249,10 +2258,10 @@
       <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="I43" s="6" t="s">
+      <c r="I43" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K43" s="18" t="s">
@@ -2260,10 +2269,10 @@
       </c>
     </row>
     <row r="44" spans="8:11">
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="I44" s="6" t="s">
+      <c r="I44" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K44" s="18" t="s">
@@ -2271,10 +2280,10 @@
       </c>
     </row>
     <row r="45" spans="8:11">
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="6" t="s">
+      <c r="I45" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K45" s="19" t="s">
@@ -2282,10 +2291,10 @@
       </c>
     </row>
     <row r="46" spans="8:11">
-      <c r="H46" s="11" t="s">
+      <c r="H46" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="6" t="s">
+      <c r="I46" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K46" s="19" t="s">
@@ -2293,10 +2302,10 @@
       </c>
     </row>
     <row r="47" spans="8:11">
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="6" t="s">
+      <c r="I47" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K47" s="19" t="s">
@@ -2304,10 +2313,10 @@
       </c>
     </row>
     <row r="48" spans="8:11">
-      <c r="H48" s="11" t="s">
+      <c r="H48" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="6" t="s">
+      <c r="I48" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K48" s="19" t="s">
@@ -2318,10 +2327,10 @@
       <c r="B49" t="s">
         <v>112</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="H49" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I49" s="6" t="s">
+      <c r="I49" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K49" s="19" t="s">
@@ -2329,10 +2338,10 @@
       </c>
     </row>
     <row r="50" spans="8:11">
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="6" t="s">
+      <c r="I50" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K50" s="19" t="s">
@@ -2340,10 +2349,10 @@
       </c>
     </row>
     <row r="51" spans="8:11">
-      <c r="H51" s="11" t="s">
+      <c r="H51" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I51" s="6" t="s">
+      <c r="I51" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="19" t="s">
@@ -2354,13 +2363,13 @@
       <c r="B52" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="H52" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K52" s="9" t="s">
+      <c r="K52" s="10" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2368,26 +2377,26 @@
       <c r="H53" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I53" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="9" t="s">
+      <c r="I53" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="10" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="H54" s="4" t="s">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="H54" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="I54" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K54" s="9" t="s">
+      <c r="K54" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2395,21 +2404,21 @@
       <c r="H55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="9" t="s">
+      <c r="I55" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="8:11">
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="I56" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="9" t="s">
+      <c r="I56" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="10" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2417,10 +2426,10 @@
       <c r="H57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I57" s="6" t="s">
+      <c r="I57" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2428,24 +2437,24 @@
       <c r="B58" t="s">
         <v>125</v>
       </c>
-      <c r="H58" s="8" t="s">
+      <c r="H58" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K58" s="9" t="s">
+      <c r="K58" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="8:11">
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I59" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="9" t="s">
+      <c r="I59" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="10" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2453,10 +2462,10 @@
       <c r="H60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="9" t="s">
+      <c r="K60" s="10" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2464,23 +2473,23 @@
       <c r="B61" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="13"/>
+      <c r="G61" s="14"/>
       <c r="H61" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K61" s="14" t="s">
+      <c r="K61" s="15" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62" spans="7:11">
-      <c r="G62" s="13"/>
-      <c r="H62" s="14" t="s">
+      <c r="G62" s="14"/>
+      <c r="H62" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="2" t="s">
         <v>46</v>
       </c>
       <c r="K62" s="20" t="s">
@@ -2488,11 +2497,11 @@
       </c>
     </row>
     <row r="63" spans="7:11">
-      <c r="G63" s="13"/>
-      <c r="H63" s="14" t="s">
+      <c r="G63" s="14"/>
+      <c r="H63" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K63" s="20" t="s">
@@ -2500,119 +2509,128 @@
       </c>
     </row>
     <row r="64" spans="7:11">
-      <c r="G64" s="13"/>
-      <c r="H64" s="15" t="s">
+      <c r="G64" s="14"/>
+      <c r="H64" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I64" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="15" t="s">
+      <c r="I64" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="7:11">
+      <c r="G65" s="14"/>
+      <c r="H65" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="7:11">
-      <c r="G65" s="21"/>
-      <c r="H65" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I65" t="s">
+    <row r="66" spans="7:11">
+      <c r="G66" s="22"/>
+      <c r="H66" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="K65" s="9" t="s">
+      <c r="I66" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="21"/>
-      <c r="H66" s="9" t="s">
+      <c r="K66" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I66" t="s">
-        <v>138</v>
-      </c>
-      <c r="K66" s="9" t="s">
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="22"/>
+      <c r="H67" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="67" spans="6:11">
-      <c r="F67" s="13"/>
-      <c r="G67" s="21"/>
-      <c r="H67" s="9" t="s">
+      <c r="I67" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K67" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="I67" t="s">
-        <v>138</v>
-      </c>
-      <c r="K67" s="9" t="s">
+    </row>
+    <row r="68" spans="6:11">
+      <c r="F68" s="14"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="10" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="68" spans="7:11">
-      <c r="G68" s="21"/>
-      <c r="H68" s="9" t="s">
+      <c r="I68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K68" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="I68" t="s">
-        <v>138</v>
-      </c>
-      <c r="K68" s="9" t="s">
+    </row>
+    <row r="69" spans="7:11">
+      <c r="G69" s="22"/>
+      <c r="H69" s="10" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="21"/>
-      <c r="H69" s="9" t="s">
+      <c r="I69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K69" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="I69" t="s">
-        <v>138</v>
-      </c>
-      <c r="K69" s="9" t="s">
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="22"/>
+      <c r="H70" s="10" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="21"/>
-      <c r="H70" s="9" t="s">
+      <c r="I70" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K70" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J70" s="1"/>
-      <c r="K70" s="9" t="s">
+    </row>
+    <row r="71" spans="3:11">
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="23" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="71" spans="7:11">
-      <c r="G71" s="21"/>
-      <c r="H71" s="9" t="s">
+      <c r="I71" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="I71" t="s">
-        <v>138</v>
-      </c>
-      <c r="K71" s="9" t="s">
+      <c r="J71" s="1"/>
+      <c r="K71" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="72" spans="8:11">
-      <c r="H72" s="9" t="s">
+    <row r="72" spans="3:11">
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="I72" t="s">
-        <v>22</v>
-      </c>
-      <c r="K72" s="20" t="s">
+      <c r="I72" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K72" s="10" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" spans="8:11">
-      <c r="H73" s="14" t="s">
+      <c r="H73" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K73" s="20" t="s">
@@ -2620,10 +2638,10 @@
       </c>
     </row>
     <row r="74" spans="8:11">
-      <c r="H74" s="14" t="s">
+      <c r="H74" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K74" s="20" t="s">
@@ -2631,507 +2649,578 @@
       </c>
     </row>
     <row r="75" spans="8:11">
-      <c r="H75" s="14" t="s">
+      <c r="H75" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="2" t="s">
         <v>22</v>
       </c>
       <c r="K75" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="76" spans="7:11">
-      <c r="G76" s="13"/>
-      <c r="H76" s="14" t="s">
+    <row r="76" spans="8:11">
+      <c r="H76" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="I76" t="s">
-        <v>138</v>
+      <c r="I76" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="K76" s="20" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="7:11">
-      <c r="G77" s="13"/>
-      <c r="H77" s="14" t="s">
+      <c r="G77" s="14"/>
+      <c r="H77" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I77" t="s">
-        <v>138</v>
+      <c r="I77" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K77" s="20" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="7:11">
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
+      <c r="G78" s="14"/>
+      <c r="H78" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="I78" t="s">
-        <v>46</v>
+      <c r="I78" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K78" s="20" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="79" spans="7:11">
-      <c r="G79" s="13"/>
-      <c r="H79" s="14" t="s">
+      <c r="G79" s="14"/>
+      <c r="H79" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="I79" t="s">
-        <v>46</v>
+      <c r="I79" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K79" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="80" spans="2:11">
-      <c r="B80" t="s">
+    <row r="80" spans="7:11">
+      <c r="G80" s="14"/>
+      <c r="H80" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I80" t="s">
-        <v>46</v>
+      <c r="I80" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="K80" s="20" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="81" spans="7:11">
-      <c r="G81" s="13"/>
-      <c r="H81" s="14" t="s">
+      <c r="G81" s="14"/>
+      <c r="H81" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="I81" t="s">
-        <v>22</v>
-      </c>
-      <c r="K81" s="23" t="s">
+      <c r="I81" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K81" s="20" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="82" spans="7:11">
-      <c r="G82" s="13"/>
-      <c r="H82" s="14" t="s">
+      <c r="G82" s="14"/>
+      <c r="H82" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="I82" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K82" s="20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="7:11">
+      <c r="G83" s="14"/>
+      <c r="H83" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="I83" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K83" s="20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="84" spans="7:11">
+      <c r="G84" s="14"/>
+      <c r="H84" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K84" s="20" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11">
+      <c r="B85" t="s">
+        <v>178</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K85" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="86" spans="7:11">
+      <c r="G86" s="14"/>
+      <c r="H86" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="7:11">
+      <c r="G87" s="14"/>
+      <c r="H87" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I87" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K82" s="20" t="s">
+      <c r="K87" s="20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="83" spans="7:11">
-      <c r="G83" s="13"/>
-      <c r="H83" s="14" t="s">
+    <row r="88" spans="7:11">
+      <c r="G88" s="14"/>
+      <c r="H88" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="I83" t="s">
-        <v>22</v>
-      </c>
-      <c r="K83" s="20" t="s">
+      <c r="I88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="7:11">
-      <c r="G84" s="13"/>
-      <c r="H84" s="15" t="s">
+    <row r="89" spans="7:11">
+      <c r="G89" s="14"/>
+      <c r="H89" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I84" t="s">
-        <v>22</v>
-      </c>
-      <c r="K84" s="15" t="s">
+      <c r="I89" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="90" spans="7:11">
+      <c r="G90" s="14"/>
+      <c r="H90" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="7:11">
-      <c r="G85" s="13"/>
-      <c r="H85" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="I85" t="s">
+    <row r="91" spans="7:11">
+      <c r="G91" s="14"/>
+      <c r="H91" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="K85" s="15" t="s">
+      <c r="I91" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="86" spans="7:11">
-      <c r="G86" s="13"/>
-      <c r="H86" s="15" t="s">
+      <c r="K91" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="I86" t="s">
-        <v>138</v>
-      </c>
-      <c r="K86" s="15" t="s">
+    </row>
+    <row r="92" spans="7:11">
+      <c r="G92" s="14"/>
+      <c r="H92" s="21" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="87" spans="7:11">
-      <c r="G87" s="13"/>
-      <c r="H87" s="15" t="s">
+      <c r="I92" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="I87" t="s">
-        <v>138</v>
-      </c>
-      <c r="K87" s="15" t="s">
+    </row>
+    <row r="93" spans="7:11">
+      <c r="G93" s="14"/>
+      <c r="H93" s="21" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="88" spans="7:11">
-      <c r="G88" s="13"/>
-      <c r="H88" s="15" t="s">
+      <c r="I93" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K93" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="I88" t="s">
-        <v>138</v>
-      </c>
-      <c r="K88" s="15" t="s">
+    </row>
+    <row r="94" spans="7:11">
+      <c r="G94" s="14"/>
+      <c r="H94" s="21" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="89" spans="7:11">
-      <c r="G89" s="13"/>
-      <c r="H89" s="15" t="s">
+      <c r="I94" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K94" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="I89" t="s">
-        <v>138</v>
-      </c>
-      <c r="K89" s="15" t="s">
+    </row>
+    <row r="95" spans="7:11">
+      <c r="G95" s="14"/>
+      <c r="H95" s="21" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="90" spans="7:11">
-      <c r="G90" s="13"/>
-      <c r="H90" s="9" t="s">
+      <c r="I95" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K95" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="I90" s="1" t="s">
+    </row>
+    <row r="96" spans="7:11">
+      <c r="G96" s="14"/>
+      <c r="H96" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="23" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="97" spans="7:11">
+      <c r="G97" s="14"/>
+      <c r="H97" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="I97" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J90" s="1"/>
-      <c r="K90" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="91" spans="7:11">
-      <c r="G91" s="13"/>
-      <c r="H91" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="I91" t="s">
-        <v>51</v>
-      </c>
-      <c r="K91" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="92" spans="7:11">
-      <c r="G92" s="13"/>
-      <c r="H92" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="I92" t="s">
-        <v>22</v>
-      </c>
-      <c r="K92" s="20" t="s">
+      <c r="K97" s="21" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="7:11">
-      <c r="G93" s="13"/>
-      <c r="H93" s="14" t="s">
+    <row r="98" spans="7:11">
+      <c r="G98" s="14"/>
+      <c r="H98" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="I93" t="s">
-        <v>22</v>
-      </c>
-      <c r="K93" s="20" t="s">
+      <c r="I98" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98" s="20" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="94" spans="5:11">
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="13"/>
-      <c r="H94" s="14" t="s">
+    <row r="99" spans="7:11">
+      <c r="G99" s="14"/>
+      <c r="H99" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I94" t="s">
-        <v>22</v>
-      </c>
-      <c r="K94" s="20" t="s">
+      <c r="I99" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" s="20" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="8:11">
-      <c r="H95" s="14" t="s">
+    <row r="100" spans="5:11">
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+      <c r="H100" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="I95" t="s">
-        <v>22</v>
-      </c>
-      <c r="K95" s="20" t="s">
+      <c r="I100" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="96" spans="7:11">
-      <c r="G96" s="13"/>
-      <c r="H96" s="14" t="s">
+    <row r="101" spans="8:11">
+      <c r="H101" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="I96" t="s">
-        <v>138</v>
-      </c>
-      <c r="K96" s="20" t="s">
+      <c r="I101" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="97" spans="7:11">
-      <c r="G97" s="13"/>
-      <c r="H97" s="14" t="s">
+    <row r="102" spans="7:11">
+      <c r="G102" s="14"/>
+      <c r="H102" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="I97" t="s">
-        <v>138</v>
-      </c>
-      <c r="K97" s="20" t="s">
+      <c r="I102" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K102" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="98" spans="7:11">
-      <c r="G98" s="13"/>
-      <c r="H98" s="14" t="s">
+    <row r="103" spans="7:11">
+      <c r="G103" s="14"/>
+      <c r="H103" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K103" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="104" spans="7:11">
+      <c r="G104" s="14"/>
+      <c r="H104" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K104" s="20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="7:11">
+      <c r="G105" s="14"/>
+      <c r="H105" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K105" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="7:11">
+      <c r="G106" s="14"/>
+      <c r="H106" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K106" s="20" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="107" spans="7:11">
+      <c r="G107" s="14"/>
+      <c r="H107" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="I98" t="s">
-        <v>138</v>
-      </c>
-      <c r="K98" s="23" t="s">
+      <c r="I107" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K107" s="20" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="7:11">
-      <c r="G99" s="13"/>
-      <c r="H99" s="14" t="s">
+    <row r="108" spans="7:11">
+      <c r="G108" s="14"/>
+      <c r="H108" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="I99" t="s">
-        <v>138</v>
-      </c>
-      <c r="K99" s="23" t="s">
+      <c r="I108" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K108" s="20" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="100" spans="7:11">
-      <c r="G100" s="13"/>
-      <c r="H100" s="14" t="s">
+    <row r="109" spans="7:11">
+      <c r="G109" s="14"/>
+      <c r="H109" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="I100" t="s">
-        <v>138</v>
-      </c>
-      <c r="K100" s="23" t="s">
+      <c r="I109" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K109" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="101" spans="7:11">
-      <c r="G101" s="13"/>
-      <c r="H101" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="I101" t="s">
-        <v>138</v>
-      </c>
-      <c r="K101" s="23" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="102" spans="7:11">
-      <c r="G102" s="13"/>
-      <c r="H102" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I102" t="s">
+    <row r="110" ht="15.5" spans="2:11">
+      <c r="B110" t="s">
+        <v>182</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="111" ht="15.5" spans="8:11">
+      <c r="H111" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K111" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="112" ht="15.5" spans="8:11">
+      <c r="H112" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="113" ht="15.5" spans="8:11">
+      <c r="H113" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="114" spans="8:11">
+      <c r="H114" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I114" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11">
+      <c r="B115" t="s">
+        <v>193</v>
+      </c>
+      <c r="H115" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="I115" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K115" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="8:11">
+      <c r="H116" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="I116" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K102" s="20" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="103" spans="7:11">
-      <c r="G103" s="13"/>
-      <c r="H103" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I103" t="s">
+      <c r="K116" s="8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="8:11">
+      <c r="H117" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="I117" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K103" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="104" ht="15.5" spans="2:11">
-      <c r="B104" t="s">
-        <v>180</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="I104" t="s">
-        <v>22</v>
-      </c>
-      <c r="K104" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="105" ht="15.5" spans="8:11">
-      <c r="H105" s="22" t="s">
-        <v>182</v>
-      </c>
-      <c r="I105" t="s">
-        <v>138</v>
-      </c>
-      <c r="K105" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="106" ht="15.5" spans="8:11">
-      <c r="H106" s="22" t="s">
-        <v>184</v>
-      </c>
-      <c r="I106" t="s">
-        <v>138</v>
-      </c>
-      <c r="K106" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="107" ht="15.5" spans="8:11">
-      <c r="H107" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="I107" t="s">
-        <v>138</v>
-      </c>
-      <c r="K107" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="108" spans="8:11">
-      <c r="H108" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="I108" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="109" spans="2:11">
-      <c r="B109" t="s">
-        <v>191</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="I109" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="110" spans="8:11">
-      <c r="H110" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="I110" s="6" t="s">
+      <c r="K117" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11">
+      <c r="B118" t="s">
+        <v>200</v>
+      </c>
+      <c r="H118" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I118" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" spans="8:11">
+      <c r="H119" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I119" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K110" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="8:11">
-      <c r="H111" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="I111" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="112" spans="2:11">
-      <c r="B112" t="s">
-        <v>198</v>
-      </c>
-      <c r="H112" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="I112" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K112" s="24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="113" spans="8:11">
-      <c r="H113" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I113" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K113" s="17" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="8:11">
-      <c r="H114" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="I114" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K114" s="24" t="s">
+      <c r="K119" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="115" spans="8:11">
-      <c r="H115" s="9" t="s">
+    <row r="120" spans="8:11">
+      <c r="H120" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="I115" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" s="24" t="s">
+      <c r="I120" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K120" s="10" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="116" spans="8:11">
-      <c r="H116" s="9" t="s">
+    <row r="121" spans="8:11">
+      <c r="H121" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="I116" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K116" s="24" t="s">
+      <c r="I121" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K121" s="10" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="122" spans="8:11">
+      <c r="H122" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="I122" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K122" s="10" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="225">
   <si>
     <t>##</t>
   </si>
@@ -560,6 +560,59 @@
   </si>
   <si>
     <t>挑战等级</t>
+  </si>
+  <si>
+    <t>Dota.RoundDrawEnemyConfigBean</t>
+  </si>
+  <si>
+    <t>itemslot1</t>
+  </si>
+  <si>
+    <t>物品栏1</t>
+  </si>
+  <si>
+    <t>itemslot2</t>
+  </si>
+  <si>
+    <t>物品栏2</t>
+  </si>
+  <si>
+    <t>itemslot3</t>
+  </si>
+  <si>
+    <t>物品栏3</t>
+  </si>
+  <si>
+    <t>itemslot4</t>
+  </si>
+  <si>
+    <t>物品栏4</t>
+  </si>
+  <si>
+    <t>itemslot5</t>
+  </si>
+  <si>
+    <t>物品栏5</t>
+  </si>
+  <si>
+    <t>itemslot6</t>
+  </si>
+  <si>
+    <t>物品栏6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9CDCFE"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>WearBundleId</t>
+    </r>
+  </si>
+  <si>
+    <t>套装Id</t>
   </si>
   <si>
     <t>Dota.UnitStarUpConfigBean</t>
@@ -656,7 +709,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -821,6 +874,12 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9CDCFE"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1301,16 +1360,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1353,9 +1409,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1370,9 +1423,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1699,10 +1749,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B56" workbookViewId="0">
-      <selection activeCell="H56" sqref="H$1:K$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1712,13 +1762,13 @@
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1739,25 +1789,25 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="16"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="15"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1786,10 +1836,10 @@
       <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1800,13 +1850,13 @@
       <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="10" t="s">
+      <c r="I4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1814,10 +1864,10 @@
       <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="I5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1828,10 +1878,10 @@
       <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="I6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1839,10 +1889,10 @@
       <c r="H7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1850,24 +1900,24 @@
       <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="8" t="s">
+      <c r="K8" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="8:11">
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="K9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1875,40 +1925,40 @@
       <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="H10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="8" t="s">
+      <c r="I10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="8:11">
-      <c r="H11" s="6" t="s">
+      <c r="H11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="8" t="s">
+      <c r="K11" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="H12" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="H12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="10" t="s">
+      <c r="I12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1916,10 +1966,10 @@
       <c r="H13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1927,21 +1977,21 @@
       <c r="H14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="10" t="s">
+      <c r="I14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="8:11">
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I15" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="10" t="s">
+      <c r="I15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1949,10 +1999,10 @@
       <c r="H16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="17" t="s">
+      <c r="I16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1960,24 +2010,24 @@
       <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="I17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="8:11">
-      <c r="H18" s="8" t="s">
+      <c r="H18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="9" t="s">
+      <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1985,24 +2035,24 @@
       <c r="B19" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="10" t="s">
+      <c r="I19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="20" spans="8:11">
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="10" t="s">
+      <c r="I20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2010,142 +2060,142 @@
       <c r="B21" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="9" t="s">
+      <c r="I21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="22" spans="8:11">
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="I22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="8:11">
-      <c r="H23" s="8" t="s">
+      <c r="H23" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="I23" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="9" t="s">
+      <c r="I23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="8" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="8:11">
-      <c r="H24" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="9" t="s">
+      <c r="K24" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="25" spans="8:11">
-      <c r="H25" s="8" t="s">
+      <c r="H25" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="9" t="s">
+      <c r="I25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" s="8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="26" spans="8:11">
-      <c r="H26" s="8" t="s">
+      <c r="H26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="9" t="s">
+      <c r="I26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="27" spans="8:11">
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="10" t="s">
+      <c r="I27" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="8:11">
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="17" t="s">
+      <c r="I28" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="8:11">
-      <c r="H29" s="10" t="s">
+      <c r="H29" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="10" t="s">
+      <c r="I29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="8:11">
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="I30" s="17" t="s">
+      <c r="I30" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K30" s="10" t="s">
+      <c r="K30" s="9" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="31" spans="8:11">
-      <c r="H31" s="9" t="s">
+      <c r="H31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I31" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="10" t="s">
+      <c r="I31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="9" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="32" spans="8:11">
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="10" t="s">
+      <c r="I32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="33" spans="8:11">
-      <c r="H33" s="9" t="s">
+      <c r="H33" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I33" s="17" t="s">
+      <c r="I33" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K33" s="1" t="s">
@@ -2153,35 +2203,35 @@
       </c>
     </row>
     <row r="34" spans="8:11">
-      <c r="H34" s="9" t="s">
+      <c r="H34" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I34" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K34" s="10" t="s">
+      <c r="I34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="35" spans="8:11">
-      <c r="H35" s="9" t="s">
+      <c r="H35" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I35" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K35" s="10" t="s">
+      <c r="I35" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="8:11">
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I36" s="17" t="s">
+      <c r="I36" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2189,10 +2239,10 @@
       <c r="H37" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="17" t="s">
+      <c r="I37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K37" s="9" t="s">
+      <c r="K37" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2200,57 +2250,57 @@
       <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="H38" s="11" t="s">
+      <c r="H38" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="11" t="s">
+      <c r="I38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="39" ht="15.5" spans="8:11">
-      <c r="H39" s="11" t="s">
+      <c r="H39" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="17" t="s">
+      <c r="I39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K39" s="10" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="40" ht="15.5" spans="8:11">
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="11" t="s">
+      <c r="I40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="41" ht="15.5" spans="8:11">
-      <c r="H41" s="11" t="s">
+      <c r="H41" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="I41" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="11" t="s">
+      <c r="I41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="42" ht="15.5" spans="8:11">
-      <c r="H42" s="11" t="s">
+      <c r="H42" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="11" t="s">
+      <c r="I42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2258,68 +2308,68 @@
       <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="I43" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="18" t="s">
+      <c r="I43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="44" spans="8:11">
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="I44" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="18" t="s">
+      <c r="I44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="16" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="45" spans="8:11">
-      <c r="H45" s="13" t="s">
+      <c r="H45" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I45" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="19" t="s">
+      <c r="I45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="46" spans="8:11">
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I46" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="19" t="s">
+      <c r="I46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="17" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="8:11">
-      <c r="H47" s="13" t="s">
+      <c r="H47" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="I47" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="19" t="s">
+      <c r="I47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="17" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="48" spans="8:11">
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="19" t="s">
+      <c r="I48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="17" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2327,35 +2377,35 @@
       <c r="B49" t="s">
         <v>112</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I49" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="19" t="s">
+      <c r="I49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" spans="8:11">
-      <c r="H50" s="13" t="s">
+      <c r="H50" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="19" t="s">
+      <c r="I50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="17" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="51" spans="8:11">
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="I51" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="19" t="s">
+      <c r="I51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="17" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2363,13 +2413,13 @@
       <c r="B52" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I52" s="17" t="s">
+      <c r="I52" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2377,26 +2427,26 @@
       <c r="H53" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="I53" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="10" t="s">
+      <c r="I53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" s="9" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="H54" s="5" t="s">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="H54" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="17" t="s">
+      <c r="I54" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2404,21 +2454,21 @@
       <c r="H55" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I55" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="10" t="s">
+      <c r="I55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="56" spans="8:11">
-      <c r="H56" s="6" t="s">
+      <c r="H56" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I56" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="10" t="s">
+      <c r="I56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2426,10 +2476,10 @@
       <c r="H57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I57" s="17" t="s">
+      <c r="I57" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="K57" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2437,24 +2487,24 @@
       <c r="B58" t="s">
         <v>125</v>
       </c>
-      <c r="H58" s="9" t="s">
+      <c r="H58" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="I58" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K58" s="10" t="s">
+      <c r="K58" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="59" spans="8:11">
-      <c r="H59" s="6" t="s">
+      <c r="H59" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I59" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K59" s="10" t="s">
+      <c r="I59" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2462,10 +2512,10 @@
       <c r="H60" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I60" s="17" t="s">
+      <c r="I60" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="9" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2473,296 +2523,295 @@
       <c r="B61" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="14"/>
+      <c r="G61" s="13"/>
       <c r="H61" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="I61" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K61" s="15" t="s">
+      <c r="K61" s="14" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62" spans="7:11">
-      <c r="G62" s="14"/>
-      <c r="H62" s="15" t="s">
+      <c r="G62" s="13"/>
+      <c r="H62" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="I62" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K62" s="20" t="s">
+      <c r="K62" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="63" spans="7:11">
-      <c r="G63" s="14"/>
-      <c r="H63" s="15" t="s">
+      <c r="G63" s="13"/>
+      <c r="H63" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="20" t="s">
+      <c r="I63" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" s="18" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="64" spans="7:11">
-      <c r="G64" s="14"/>
-      <c r="H64" s="2" t="s">
+      <c r="G64" s="13"/>
+      <c r="H64" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="I64" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="65" spans="7:11">
-      <c r="G65" s="14"/>
-      <c r="H65" s="21" t="s">
+      <c r="G65" s="13"/>
+      <c r="H65" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I65" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" s="21" t="s">
+      <c r="I65" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="66" spans="7:11">
-      <c r="G66" s="22"/>
-      <c r="H66" s="10" t="s">
+      <c r="G66" s="20"/>
+      <c r="H66" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="I66" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="9" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="67" spans="7:11">
-      <c r="G67" s="22"/>
-      <c r="H67" s="10" t="s">
+      <c r="G67" s="20"/>
+      <c r="H67" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="I67" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K67" s="10" t="s">
+      <c r="K67" s="9" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68" spans="6:11">
-      <c r="F68" s="14"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="10" t="s">
+      <c r="F68" s="13"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I68" s="2" t="s">
+      <c r="I68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="69" spans="7:11">
-      <c r="G69" s="22"/>
-      <c r="H69" s="10" t="s">
+      <c r="G69" s="20"/>
+      <c r="H69" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="I69" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K69" s="10" t="s">
+      <c r="K69" s="9" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="70" spans="7:11">
-      <c r="G70" s="22"/>
-      <c r="H70" s="10" t="s">
+      <c r="G70" s="20"/>
+      <c r="H70" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="I70" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K70" s="10" t="s">
+      <c r="K70" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="71" spans="3:11">
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="23" t="s">
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="20"/>
+      <c r="H71" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="I71" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J71" s="1"/>
-      <c r="K71" s="23" t="s">
+      <c r="K71" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="72" spans="3:11">
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="10" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="20"/>
+      <c r="H72" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="2" t="s">
+      <c r="I72" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K72" s="10" t="s">
+      <c r="K72" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="73" spans="8:11">
-      <c r="H73" s="10" t="s">
+      <c r="H73" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I73" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="20" t="s">
+      <c r="I73" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="74" spans="8:11">
-      <c r="H74" s="15" t="s">
+      <c r="H74" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I74" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K74" s="20" t="s">
+      <c r="I74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="75" spans="8:11">
-      <c r="H75" s="15" t="s">
+      <c r="H75" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K75" s="20" t="s">
+      <c r="I75" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="76" spans="8:11">
-      <c r="H76" s="15" t="s">
+      <c r="H76" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="I76" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="20" t="s">
+      <c r="I76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="77" spans="7:11">
-      <c r="G77" s="14"/>
-      <c r="H77" s="15" t="s">
+      <c r="G77" s="13"/>
+      <c r="H77" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="I77" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K77" s="20" t="s">
+      <c r="K77" s="18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="78" spans="7:11">
-      <c r="G78" s="14"/>
-      <c r="H78" s="15" t="s">
+      <c r="G78" s="13"/>
+      <c r="H78" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I78" s="2" t="s">
+      <c r="I78" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K78" s="20" t="s">
+      <c r="K78" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="79" spans="7:11">
-      <c r="G79" s="14"/>
-      <c r="H79" s="15" t="s">
+      <c r="G79" s="13"/>
+      <c r="H79" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="I79" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K79" s="20" t="s">
+      <c r="K79" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="80" spans="7:11">
-      <c r="G80" s="14"/>
-      <c r="H80" s="15" t="s">
+      <c r="G80" s="13"/>
+      <c r="H80" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="I80" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K80" s="20" t="s">
+      <c r="K80" s="18" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="81" spans="7:11">
-      <c r="G81" s="14"/>
-      <c r="H81" s="15" t="s">
+      <c r="G81" s="13"/>
+      <c r="H81" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="I81" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K81" s="20" t="s">
+      <c r="K81" s="18" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="82" spans="7:11">
-      <c r="G82" s="14"/>
-      <c r="H82" s="15" t="s">
+      <c r="G82" s="13"/>
+      <c r="H82" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="I82" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K82" s="20" t="s">
+      <c r="K82" s="18" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="83" spans="7:11">
-      <c r="G83" s="14"/>
-      <c r="H83" s="15" t="s">
+      <c r="G83" s="13"/>
+      <c r="H83" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="I83" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K83" s="20" t="s">
+      <c r="K83" s="18" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="84" spans="7:11">
-      <c r="G84" s="14"/>
-      <c r="H84" s="15" t="s">
+      <c r="G84" s="13"/>
+      <c r="H84" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="I84" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K84" s="20" t="s">
+      <c r="K84" s="18" t="s">
         <v>177</v>
       </c>
     </row>
@@ -2770,457 +2819,615 @@
       <c r="B85" t="s">
         <v>178</v>
       </c>
-      <c r="G85" s="14"/>
-      <c r="H85" s="15" t="s">
+      <c r="G85" s="13"/>
+      <c r="H85" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="I85" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K85" s="20" t="s">
+      <c r="K85" s="18" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="86" spans="7:11">
-      <c r="G86" s="14"/>
-      <c r="H86" s="15" t="s">
+      <c r="G86" s="13"/>
+      <c r="H86" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="I86" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="20" t="s">
+      <c r="I86" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" s="18" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="87" spans="7:11">
-      <c r="G87" s="14"/>
-      <c r="H87" s="15" t="s">
+      <c r="G87" s="13"/>
+      <c r="H87" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I87" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K87" s="20" t="s">
+      <c r="K87" s="18" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="88" spans="7:11">
-      <c r="G88" s="14"/>
-      <c r="H88" s="15" t="s">
+      <c r="G88" s="13"/>
+      <c r="H88" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="I88" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="20" t="s">
+      <c r="I88" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" s="18" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="89" spans="7:11">
-      <c r="G89" s="14"/>
-      <c r="H89" s="2" t="s">
+      <c r="G89" s="13"/>
+      <c r="H89" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K89" s="2" t="s">
+      <c r="I89" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="90" spans="7:11">
-      <c r="G90" s="14"/>
-      <c r="H90" s="21" t="s">
+      <c r="G90" s="13"/>
+      <c r="H90" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I90" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="21" t="s">
+      <c r="I90" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="91" spans="7:11">
-      <c r="G91" s="14"/>
-      <c r="H91" s="21" t="s">
+      <c r="G91" s="13"/>
+      <c r="H91" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="I91" s="2" t="s">
+      <c r="I91" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K91" s="21" t="s">
+      <c r="K91" s="19" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="92" spans="7:11">
-      <c r="G92" s="14"/>
-      <c r="H92" s="21" t="s">
+      <c r="G92" s="13"/>
+      <c r="H92" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="I92" s="2" t="s">
+      <c r="I92" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K92" s="21" t="s">
+      <c r="K92" s="19" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="93" spans="7:11">
-      <c r="G93" s="14"/>
-      <c r="H93" s="21" t="s">
+      <c r="G93" s="13"/>
+      <c r="H93" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="I93" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K93" s="21" t="s">
+      <c r="K93" s="19" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="94" spans="7:11">
-      <c r="G94" s="14"/>
-      <c r="H94" s="21" t="s">
+      <c r="G94" s="13"/>
+      <c r="H94" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="I94" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K94" s="21" t="s">
+      <c r="K94" s="19" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="95" spans="7:11">
-      <c r="G95" s="14"/>
-      <c r="H95" s="21" t="s">
+      <c r="G95" s="13"/>
+      <c r="H95" s="19" t="s">
         <v>147</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="I95" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K95" s="21" t="s">
+      <c r="K95" s="19" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="96" spans="7:11">
-      <c r="G96" s="14"/>
-      <c r="H96" s="23" t="s">
+      <c r="G96" s="13"/>
+      <c r="H96" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="I96" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="J96" s="1"/>
-      <c r="K96" s="23" t="s">
+      <c r="K96" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="97" spans="7:11">
-      <c r="G97" s="14"/>
-      <c r="H97" s="21" t="s">
+      <c r="G97" s="13"/>
+      <c r="H97" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="I97" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K97" s="21" t="s">
+      <c r="K97" s="19" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98" spans="7:11">
-      <c r="G98" s="14"/>
-      <c r="H98" s="10" t="s">
+      <c r="G98" s="13"/>
+      <c r="H98" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I98" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K98" s="20" t="s">
+      <c r="I98" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K98" s="18" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="99" spans="7:11">
-      <c r="G99" s="14"/>
-      <c r="H99" s="15" t="s">
+      <c r="G99" s="13"/>
+      <c r="H99" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I99" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K99" s="20" t="s">
+      <c r="I99" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K99" s="18" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="100" spans="5:11">
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="15" t="s">
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="I100" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="20" t="s">
+      <c r="I100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K100" s="18" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="101" spans="8:11">
-      <c r="H101" s="15" t="s">
+      <c r="H101" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="I101" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K101" s="20" t="s">
+      <c r="I101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="18" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="102" spans="7:11">
-      <c r="G102" s="14"/>
-      <c r="H102" s="15" t="s">
+      <c r="G102" s="13"/>
+      <c r="H102" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="I102" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K102" s="20" t="s">
+      <c r="K102" s="18" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="103" spans="7:11">
-      <c r="G103" s="14"/>
-      <c r="H103" s="15" t="s">
+      <c r="G103" s="13"/>
+      <c r="H103" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="I103" s="2" t="s">
+      <c r="I103" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K103" s="20" t="s">
+      <c r="K103" s="18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="104" spans="7:11">
-      <c r="G104" s="14"/>
-      <c r="H104" s="15" t="s">
+      <c r="G104" s="13"/>
+      <c r="H104" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="I104" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K104" s="20" t="s">
+      <c r="K104" s="18" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="105" spans="7:11">
-      <c r="G105" s="14"/>
-      <c r="H105" s="15" t="s">
+      <c r="G105" s="13"/>
+      <c r="H105" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="I105" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K105" s="20" t="s">
+      <c r="K105" s="18" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="106" spans="7:11">
-      <c r="G106" s="14"/>
-      <c r="H106" s="15" t="s">
+      <c r="G106" s="13"/>
+      <c r="H106" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="I106" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K106" s="20" t="s">
+      <c r="K106" s="18" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="107" spans="7:11">
-      <c r="G107" s="14"/>
-      <c r="H107" s="15" t="s">
+      <c r="G107" s="13"/>
+      <c r="H107" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="I107" s="2" t="s">
+      <c r="I107" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K107" s="20" t="s">
+      <c r="K107" s="18" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="108" spans="7:11">
-      <c r="G108" s="14"/>
-      <c r="H108" s="15" t="s">
+      <c r="G108" s="13"/>
+      <c r="H108" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="I108" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K108" s="20" t="s">
+      <c r="K108" s="18" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="109" spans="7:11">
-      <c r="G109" s="14"/>
-      <c r="H109" s="15" t="s">
+      <c r="G109" s="13"/>
+      <c r="H109" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="I109" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K109" s="20" t="s">
+      <c r="K109" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="110" ht="15.5" spans="2:11">
+    <row r="110" spans="2:11">
       <c r="B110" t="s">
         <v>182</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="G110" s="13"/>
+      <c r="H110" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K110" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="7:11">
+      <c r="G111" s="13"/>
+      <c r="H111" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K111" s="18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="7:11">
+      <c r="G112" s="13"/>
+      <c r="H112" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K112" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="113" spans="7:11">
+      <c r="G113" s="13"/>
+      <c r="H113" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K113" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="7:11">
+      <c r="G114" s="13"/>
+      <c r="H114" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I114" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="7:11">
+      <c r="G115" s="13"/>
+      <c r="H115" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="I110" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K110" s="11" t="s">
+      <c r="I115" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K115" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="116" spans="7:11">
+      <c r="G116" s="13"/>
+      <c r="H116" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K116" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="117" spans="7:11">
+      <c r="G117" s="13"/>
+      <c r="H117" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K117" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="118" spans="7:11">
+      <c r="G118" s="13"/>
+      <c r="H118" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K118" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="119" spans="7:11">
+      <c r="G119" s="13"/>
+      <c r="H119" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="I119" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K119" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="120" spans="7:11">
+      <c r="G120" s="13"/>
+      <c r="H120" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K120" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="121" ht="15.5" spans="7:11">
+      <c r="G121" s="13"/>
+      <c r="H121" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I121" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K121" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="122" spans="7:11">
+      <c r="G122" s="13"/>
+      <c r="H122" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I122" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K122" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" ht="15.5" spans="2:11">
+      <c r="B123" t="s">
+        <v>197</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K123" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="111" ht="15.5" spans="8:11">
-      <c r="H111" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="I111" s="2" t="s">
+    <row r="124" ht="15.5" spans="8:11">
+      <c r="H124" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="I124" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K111" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="112" ht="15.5" spans="8:11">
-      <c r="H112" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="I112" s="2" t="s">
+      <c r="K124" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="125" ht="15.5" spans="8:11">
+      <c r="H125" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="I125" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K112" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="113" ht="15.5" spans="8:11">
-      <c r="H113" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="I113" s="2" t="s">
+      <c r="K125" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" ht="15.5" spans="8:11">
+      <c r="H126" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="I126" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K113" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="114" spans="8:11">
-      <c r="H114" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="I114" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="K114" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="115" spans="2:11">
-      <c r="B115" t="s">
-        <v>193</v>
-      </c>
-      <c r="H115" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="I115" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="116" spans="8:11">
-      <c r="H116" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I116" s="17" t="s">
+      <c r="K126" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="127" spans="8:11">
+      <c r="H127" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11">
+      <c r="B128" t="s">
+        <v>208</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K128" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="8:11">
+      <c r="H129" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I129" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K116" s="8" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="117" spans="8:11">
-      <c r="H117" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I117" s="17" t="s">
+      <c r="K129" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="130" spans="8:11">
+      <c r="H130" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="I130" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K117" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11">
-      <c r="B118" t="s">
-        <v>200</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="I118" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K118" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="119" spans="8:11">
-      <c r="H119" s="8" t="s">
+      <c r="K130" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11">
+      <c r="B131" t="s">
+        <v>215</v>
+      </c>
+      <c r="H131" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K131" s="9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="8:11">
+      <c r="H132" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I119" s="17" t="s">
+      <c r="I132" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K119" s="9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="120" spans="8:11">
-      <c r="H120" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="I120" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K120" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="121" spans="8:11">
-      <c r="H121" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="I121" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K121" s="10" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="122" spans="8:11">
-      <c r="H122" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="I122" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K122" s="10" t="s">
-        <v>209</v>
+      <c r="K132" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="133" spans="8:11">
+      <c r="H133" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K133" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="134" spans="8:11">
+      <c r="H134" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="135" spans="8:11">
+      <c r="H135" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="226">
   <si>
     <t>##</t>
   </si>
@@ -94,15 +94,18 @@
     <t>道具数量</t>
   </si>
   <si>
+    <t>Item.ItemInfoWithIndexBean</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>道具组索引</t>
+  </si>
+  <si>
     <t>Item.ItemGroupBean</t>
   </si>
   <si>
-    <t>Index</t>
-  </si>
-  <si>
-    <t>道具组索引</t>
-  </si>
-  <si>
     <t>ItemGroup</t>
   </si>
   <si>
@@ -292,7 +295,70 @@
     <t>Vip限制</t>
   </si>
   <si>
-    <t>Prop.PropPoolBean</t>
+    <t>Activity.BattlePassBean</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>升级经验</t>
+  </si>
+  <si>
+    <t>VIP_ItemConfigId</t>
+  </si>
+  <si>
+    <t>vip道具索引</t>
+  </si>
+  <si>
+    <t>VIP_ItemCount</t>
+  </si>
+  <si>
+    <t>vip道具数量</t>
+  </si>
+  <si>
+    <t>Activity.InvestMetaStoneBean</t>
+  </si>
+  <si>
+    <t>Need</t>
+  </si>
+  <si>
+    <t>需要数量</t>
+  </si>
+  <si>
+    <t>GainMin</t>
+  </si>
+  <si>
+    <t>获得最小数量</t>
+  </si>
+  <si>
+    <t>GainMax</t>
+  </si>
+  <si>
+    <t>获得最大数量</t>
+  </si>
+  <si>
+    <t>Task.TaskFinishConditionBean</t>
+  </si>
+  <si>
+    <t>KeyString</t>
+  </si>
+  <si>
+    <t>条件Key</t>
+  </si>
+  <si>
+    <t>ValueInt</t>
+  </si>
+  <si>
+    <t>条件Value</t>
+  </si>
+  <si>
+    <t>Dota.PropPoolBean</t>
   </si>
   <si>
     <t>Propid</t>
@@ -323,69 +389,6 @@
   </si>
   <si>
     <t>属性显示最小值</t>
-  </si>
-  <si>
-    <t>Activity.BattlePassBean</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>Exp</t>
-  </si>
-  <si>
-    <t>升级经验</t>
-  </si>
-  <si>
-    <t>VIP_ItemConfigId</t>
-  </si>
-  <si>
-    <t>vip道具索引</t>
-  </si>
-  <si>
-    <t>VIP_ItemCount</t>
-  </si>
-  <si>
-    <t>vip道具数量</t>
-  </si>
-  <si>
-    <t>Activity.InvestMetaStoneBean</t>
-  </si>
-  <si>
-    <t>Need</t>
-  </si>
-  <si>
-    <t>需要数量</t>
-  </si>
-  <si>
-    <t>GainMin</t>
-  </si>
-  <si>
-    <t>获得最小数量</t>
-  </si>
-  <si>
-    <t>GainMax</t>
-  </si>
-  <si>
-    <t>获得最大数量</t>
-  </si>
-  <si>
-    <t>Task.TaskFinishConditionBean</t>
-  </si>
-  <si>
-    <t>KeyString</t>
-  </si>
-  <si>
-    <t>条件Key</t>
-  </si>
-  <si>
-    <t>ValueInt</t>
-  </si>
-  <si>
-    <t>条件Value</t>
   </si>
   <si>
     <t>Dota.PoolInfoBean</t>
@@ -1391,33 +1394,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1428,6 +1428,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1749,10 +1752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L135"/>
+  <dimension ref="A1:L138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1795,7 +1798,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="15"/>
+      <c r="L1" s="14"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
@@ -1886,1548 +1889,1584 @@
       </c>
     </row>
     <row r="7" spans="8:11">
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="8:11">
+      <c r="H8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="H9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="8:11">
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="I10" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" t="s">
+      <c r="K10" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="5" t="s">
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="8:11">
-      <c r="H9" s="5" t="s">
+      <c r="K11" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="8" t="s">
+    </row>
+    <row r="12" spans="8:11">
+      <c r="H12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="I12" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="B10" t="s">
+      <c r="K12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="5" t="s">
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="H13" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="8:11">
-      <c r="H11" s="5" t="s">
+      <c r="I13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11" s="7" t="s">
+    </row>
+    <row r="14" spans="8:11">
+      <c r="H14" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="6" t="s">
+      <c r="I14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="H12" s="4" t="s">
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="H15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="9" t="s">
+      <c r="I15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="8:11">
-      <c r="H13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="8:11">
-      <c r="H14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="8:11">
-      <c r="H15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="8:11">
       <c r="H16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="8:11">
+      <c r="H17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="4" t="s">
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="I19" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
+      <c r="K19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="H17" s="7" t="s">
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="8" t="s">
+      <c r="H20" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="8:11">
-      <c r="H18" s="7" t="s">
+      <c r="I20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="8" t="s">
+    </row>
+    <row r="21" spans="8:11">
+      <c r="H21" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" t="s">
+      <c r="I21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="8" t="s">
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" t="s">
         <v>59</v>
       </c>
-      <c r="I19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="9" t="s">
+      <c r="H22" s="8" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="8:11">
-      <c r="H20" s="5" t="s">
+      <c r="I22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="9" t="s">
+    </row>
+    <row r="23" spans="8:11">
+      <c r="H23" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" t="s">
+      <c r="I23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H21" s="7" t="s">
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" t="s">
         <v>64</v>
       </c>
-      <c r="I21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="8" t="s">
+      <c r="H24" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="8:11">
-      <c r="H22" s="7" t="s">
+      <c r="I24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="8:11">
-      <c r="H23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="8:11">
-      <c r="H24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K24" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="25" spans="8:11">
       <c r="H25" s="7" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="8:11">
       <c r="H26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="8:11">
+      <c r="H27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="8:11">
+      <c r="H28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K26" s="8" t="s">
+    </row>
+    <row r="29" spans="8:11">
+      <c r="H29" s="7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="8:11">
-      <c r="H27" s="9" t="s">
+      <c r="I29" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="8:11">
+      <c r="H30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="I27" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K27" s="9" t="s">
+      <c r="I30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="8:11">
-      <c r="H28" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I28" s="4" t="s">
+    <row r="31" spans="8:11">
+      <c r="H31" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="K28" s="9" t="s">
+      <c r="I31" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="29" spans="8:11">
-      <c r="H29" s="9" t="s">
+      <c r="K31" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="8:11">
+      <c r="H32" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="9" t="s">
+      <c r="I32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="8:11">
-      <c r="H30" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="8:11">
-      <c r="H31" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="8:11">
-      <c r="H32" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="33" spans="8:11">
       <c r="H33" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="8:11">
       <c r="H34" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="8:11">
       <c r="H35" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="8:11">
       <c r="H36" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="8:11">
+      <c r="H37" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="8:11">
+      <c r="H38" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="I36" s="4" t="s">
+    </row>
+    <row r="39" spans="8:11">
+      <c r="H39" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="8:11">
+      <c r="H40" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K36" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="8:11">
-      <c r="H37" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K37" s="8" t="s">
+      <c r="I40" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="38" ht="15.5" spans="2:11">
-      <c r="B38" t="s">
-        <v>92</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="K40" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11">
+      <c r="B41" t="s">
         <v>93</v>
       </c>
-      <c r="I38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K38" s="10" t="s">
+      <c r="H41" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="39" ht="15.5" spans="8:11">
-      <c r="H39" s="10" t="s">
+      <c r="I41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" s="10" t="s">
+    </row>
+    <row r="42" spans="8:11">
+      <c r="H42" s="10" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" ht="15.5" spans="8:11">
-      <c r="H40" s="10" t="s">
+      <c r="I42" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I40" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K40" s="10" t="s">
+    </row>
+    <row r="43" spans="8:11">
+      <c r="H43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="8:11">
+      <c r="H44" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="8:11">
+      <c r="H45" s="11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" ht="15.5" spans="8:11">
-      <c r="H41" s="10" t="s">
+      <c r="I45" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="I41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K41" s="10" t="s">
+    </row>
+    <row r="46" spans="8:11">
+      <c r="H46" s="10" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" ht="15.5" spans="8:11">
-      <c r="H42" s="10" t="s">
+      <c r="I46" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I42" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K42" s="10" t="s">
+    </row>
+    <row r="47" spans="2:11">
+      <c r="B47" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="43" spans="2:11">
-      <c r="B43" t="s">
+      <c r="H47" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="I47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K43" s="16" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="44" spans="8:11">
-      <c r="H44" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K44" s="16" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="45" spans="8:11">
-      <c r="H45" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K45" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="8:11">
-      <c r="H46" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K46" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="8:11">
-      <c r="H47" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K47" s="17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="48" spans="8:11">
       <c r="H48" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11">
+      <c r="H49" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" s="16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11">
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K48" s="17" t="s">
+      <c r="I50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K50" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="2:11">
-      <c r="B49" t="s">
+    <row r="51" spans="8:11">
+      <c r="H51" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H49" s="11" t="s">
+      <c r="I51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="I49" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K49" s="17" t="s">
+    </row>
+    <row r="52" ht="15.5" spans="2:11">
+      <c r="B52" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="50" spans="8:11">
-      <c r="H50" s="12" t="s">
+      <c r="H52" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="I50" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K50" s="17" t="s">
+      <c r="I52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="8:11">
-      <c r="H51" s="11" t="s">
+    <row r="53" ht="15.5" spans="8:11">
+      <c r="H53" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="I51" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K51" s="17" t="s">
+      <c r="I53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="2:11">
-      <c r="B52" t="s">
+    <row r="54" ht="15.5" spans="8:11">
+      <c r="H54" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="H52" s="4" t="s">
+      <c r="I54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="I52" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K52" s="9" t="s">
+    </row>
+    <row r="55" ht="15.5" spans="8:11">
+      <c r="H55" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="53" spans="8:11">
-      <c r="H53" s="1" t="s">
+      <c r="I55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="I53" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K53" s="9" t="s">
+    </row>
+    <row r="56" ht="15.5" spans="8:11">
+      <c r="H56" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="54" spans="2:11">
-      <c r="B54" s="6" t="s">
+      <c r="I56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="H54" s="4" t="s">
+    </row>
+    <row r="57" spans="2:11">
+      <c r="B57" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="H57" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I54" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K54" s="9" t="s">
+      <c r="I57" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K57" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="8:11">
-      <c r="H55" s="1" t="s">
+    <row r="58" spans="8:11">
+      <c r="H58" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I55" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K55" s="9" t="s">
+      <c r="I58" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" s="9" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="8:11">
-      <c r="H56" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K56" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="8:11">
-      <c r="H57" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K57" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11">
-      <c r="B58" t="s">
-        <v>125</v>
-      </c>
-      <c r="H58" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K58" s="9" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="59" spans="8:11">
       <c r="H59" s="5" t="s">
-        <v>127</v>
+        <v>49</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="8:11">
       <c r="H60" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>128</v>
+        <v>52</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="2:11">
       <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K61" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="8:11">
+      <c r="H62" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="8:11">
+      <c r="H63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K63" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="13"/>
-      <c r="H61" s="1" t="s">
+    </row>
+    <row r="64" spans="2:11">
+      <c r="B64" t="s">
         <v>130</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="7:11">
-      <c r="G62" s="13"/>
-      <c r="H62" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K62" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="63" spans="7:11">
-      <c r="G63" s="13"/>
-      <c r="H63" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K63" s="18" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="64" spans="7:11">
       <c r="G64" s="13"/>
       <c r="H64" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K64" s="1" t="s">
-        <v>105</v>
+        <v>47</v>
+      </c>
+      <c r="K64" s="17" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="7:11">
       <c r="G65" s="13"/>
-      <c r="H65" s="19" t="s">
+      <c r="H65" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="7:11">
+      <c r="G66" s="13"/>
+      <c r="H66" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="7:11">
+      <c r="G67" s="13"/>
+      <c r="H67" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K65" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="20"/>
-      <c r="H66" s="9" t="s">
+      <c r="I67" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="7:11">
+      <c r="G68" s="13"/>
+      <c r="H68" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" s="18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="7:11">
+      <c r="G69" s="19"/>
+      <c r="H69" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="I69" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="20"/>
-      <c r="H67" s="9" t="s">
+      <c r="K69" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K67" s="9" t="s">
+    </row>
+    <row r="70" spans="7:11">
+      <c r="G70" s="19"/>
+      <c r="H70" s="9" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="68" spans="6:11">
-      <c r="F68" s="13"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="9" t="s">
+      <c r="I70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K70" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K68" s="9" t="s">
+    </row>
+    <row r="71" spans="6:11">
+      <c r="F71" s="13"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="9" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="20"/>
-      <c r="H69" s="9" t="s">
+      <c r="I71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K71" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K69" s="9" t="s">
+    </row>
+    <row r="72" spans="7:11">
+      <c r="G72" s="19"/>
+      <c r="H72" s="9" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="20"/>
-      <c r="H70" s="9" t="s">
+      <c r="I72" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K72" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K70" s="9" t="s">
+    </row>
+    <row r="73" spans="7:11">
+      <c r="G73" s="19"/>
+      <c r="H73" s="9" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="71" spans="3:11">
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="9" t="s">
+      <c r="I73" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K73" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="I71" s="1" t="s">
+    </row>
+    <row r="74" spans="3:11">
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="I74" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="72" spans="3:11">
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="9" t="s">
+      <c r="K74" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K72" s="9" t="s">
+    </row>
+    <row r="75" spans="3:11">
+      <c r="C75" s="20"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="20"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="9" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="73" spans="8:11">
-      <c r="H73" s="9" t="s">
+      <c r="I75" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K75" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K73" s="18" t="s">
+    </row>
+    <row r="76" spans="8:11">
+      <c r="H76" s="9" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="74" spans="8:11">
-      <c r="H74" s="14" t="s">
+      <c r="I76" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K74" s="18" t="s">
+    </row>
+    <row r="77" spans="8:11">
+      <c r="H77" s="17" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="75" spans="8:11">
-      <c r="H75" s="14" t="s">
+      <c r="I77" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K75" s="18" t="s">
+    </row>
+    <row r="78" spans="8:11">
+      <c r="H78" s="17" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="76" spans="8:11">
-      <c r="H76" s="14" t="s">
+      <c r="I78" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K76" s="18" t="s">
+    </row>
+    <row r="79" spans="8:11">
+      <c r="H79" s="17" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="77" spans="7:11">
-      <c r="G77" s="13"/>
-      <c r="H77" s="14" t="s">
+      <c r="I79" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" s="22" t="s">
         <v>162</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K77" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="78" spans="7:11">
-      <c r="G78" s="13"/>
-      <c r="H78" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K78" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="7:11">
-      <c r="G79" s="13"/>
-      <c r="H79" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K79" s="18" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="80" spans="7:11">
       <c r="G80" s="13"/>
-      <c r="H80" s="14" t="s">
-        <v>168</v>
+      <c r="H80" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K80" s="18" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="K80" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="7:11">
       <c r="G81" s="13"/>
-      <c r="H81" s="14" t="s">
-        <v>170</v>
+      <c r="H81" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K81" s="18" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="K81" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="7:11">
       <c r="G82" s="13"/>
-      <c r="H82" s="14" t="s">
-        <v>172</v>
+      <c r="H82" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K82" s="18" t="s">
-        <v>173</v>
+        <v>140</v>
+      </c>
+      <c r="K82" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="83" spans="7:11">
       <c r="G83" s="13"/>
-      <c r="H83" s="14" t="s">
-        <v>174</v>
+      <c r="H83" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K83" s="18" t="s">
-        <v>175</v>
+        <v>140</v>
+      </c>
+      <c r="K83" s="22" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="84" spans="7:11">
       <c r="G84" s="13"/>
-      <c r="H84" s="14" t="s">
-        <v>176</v>
+      <c r="H84" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="85" spans="2:11">
-      <c r="B85" t="s">
-        <v>178</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K84" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="85" spans="7:11">
       <c r="G85" s="13"/>
-      <c r="H85" s="14" t="s">
-        <v>130</v>
+      <c r="H85" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85" s="18" t="s">
-        <v>179</v>
+        <v>140</v>
+      </c>
+      <c r="K85" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="86" spans="7:11">
       <c r="G86" s="13"/>
-      <c r="H86" s="14" t="s">
-        <v>180</v>
+      <c r="H86" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K86" s="18" t="s">
-        <v>181</v>
+        <v>47</v>
+      </c>
+      <c r="K86" s="22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="87" spans="7:11">
       <c r="G87" s="13"/>
-      <c r="H87" s="14" t="s">
-        <v>132</v>
+      <c r="H87" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K87" s="18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="88" spans="7:11">
+        <v>47</v>
+      </c>
+      <c r="K87" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11">
+      <c r="B88" t="s">
+        <v>179</v>
+      </c>
       <c r="G88" s="13"/>
-      <c r="H88" s="14" t="s">
-        <v>134</v>
+      <c r="H88" s="17" t="s">
+        <v>131</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K88" s="18" t="s">
-        <v>135</v>
+        <v>47</v>
+      </c>
+      <c r="K88" s="22" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="7:11">
       <c r="G89" s="13"/>
-      <c r="H89" s="1" t="s">
-        <v>136</v>
+      <c r="H89" s="17" t="s">
+        <v>181</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>105</v>
+      <c r="K89" s="22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="7:11">
       <c r="G90" s="13"/>
-      <c r="H90" s="19" t="s">
-        <v>137</v>
+      <c r="H90" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K90" s="19" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="K90" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="7:11">
       <c r="G91" s="13"/>
-      <c r="H91" s="19" t="s">
-        <v>138</v>
+      <c r="H91" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K91" s="19" t="s">
-        <v>140</v>
+        <v>22</v>
+      </c>
+      <c r="K91" s="22" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="7:11">
       <c r="G92" s="13"/>
-      <c r="H92" s="19" t="s">
-        <v>141</v>
+      <c r="H92" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K92" s="19" t="s">
-        <v>142</v>
+        <v>22</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="93" spans="7:11">
       <c r="G93" s="13"/>
-      <c r="H93" s="19" t="s">
-        <v>143</v>
+      <c r="H93" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K93" s="19" t="s">
-        <v>144</v>
+        <v>22</v>
+      </c>
+      <c r="K93" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="7:11">
       <c r="G94" s="13"/>
-      <c r="H94" s="19" t="s">
-        <v>145</v>
+      <c r="H94" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K94" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
+      </c>
+      <c r="K94" s="18" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="7:11">
       <c r="G95" s="13"/>
-      <c r="H95" s="19" t="s">
-        <v>147</v>
+      <c r="H95" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K95" s="19" t="s">
-        <v>148</v>
+        <v>140</v>
+      </c>
+      <c r="K95" s="18" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="7:11">
       <c r="G96" s="13"/>
-      <c r="H96" s="9" t="s">
-        <v>149</v>
+      <c r="H96" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="K96" s="9" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="K96" s="18" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="7:11">
       <c r="G97" s="13"/>
-      <c r="H97" s="19" t="s">
-        <v>152</v>
+      <c r="H97" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K97" s="19" t="s">
-        <v>153</v>
+        <v>140</v>
+      </c>
+      <c r="K97" s="18" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="7:11">
       <c r="G98" s="13"/>
-      <c r="H98" s="9" t="s">
-        <v>154</v>
+      <c r="H98" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="99" spans="7:11">
       <c r="G99" s="13"/>
-      <c r="H99" s="14" t="s">
+      <c r="H99" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K99" s="9" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="7:11">
+      <c r="G100" s="13"/>
+      <c r="H100" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K100" s="18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="7:11">
+      <c r="G101" s="13"/>
+      <c r="H101" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K101" s="22" t="s">
         <v>156</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K99" s="18" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="5:11">
-      <c r="E100" s="13"/>
-      <c r="F100" s="13"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K100" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="101" spans="8:11">
-      <c r="H101" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K101" s="18" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="102" spans="7:11">
       <c r="G102" s="13"/>
-      <c r="H102" s="14" t="s">
+      <c r="H102" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="I102" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K102" s="22" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="103" spans="5:11">
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K103" s="22" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="104" spans="8:11">
+      <c r="H104" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K104" s="22" t="s">
         <v>162</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K102" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="103" spans="7:11">
-      <c r="G103" s="13"/>
-      <c r="H103" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K103" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="104" spans="7:11">
-      <c r="G104" s="13"/>
-      <c r="H104" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K104" s="18" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="105" spans="7:11">
       <c r="G105" s="13"/>
-      <c r="H105" s="14" t="s">
-        <v>168</v>
+      <c r="H105" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K105" s="18" t="s">
-        <v>169</v>
+        <v>140</v>
+      </c>
+      <c r="K105" s="22" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="106" spans="7:11">
       <c r="G106" s="13"/>
-      <c r="H106" s="14" t="s">
-        <v>170</v>
+      <c r="H106" s="17" t="s">
+        <v>165</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K106" s="18" t="s">
-        <v>171</v>
+        <v>140</v>
+      </c>
+      <c r="K106" s="22" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="7:11">
       <c r="G107" s="13"/>
-      <c r="H107" s="14" t="s">
-        <v>172</v>
+      <c r="H107" s="17" t="s">
+        <v>167</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K107" s="18" t="s">
-        <v>173</v>
+        <v>140</v>
+      </c>
+      <c r="K107" s="22" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="108" spans="7:11">
       <c r="G108" s="13"/>
-      <c r="H108" s="14" t="s">
-        <v>174</v>
+      <c r="H108" s="17" t="s">
+        <v>169</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K108" s="18" t="s">
-        <v>175</v>
+        <v>140</v>
+      </c>
+      <c r="K108" s="22" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="109" spans="7:11">
       <c r="G109" s="13"/>
-      <c r="H109" s="14" t="s">
-        <v>176</v>
+      <c r="H109" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K109" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="110" spans="2:11">
-      <c r="B110" t="s">
-        <v>182</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="K109" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="7:11">
       <c r="G110" s="13"/>
-      <c r="H110" s="14" t="s">
-        <v>132</v>
+      <c r="H110" s="17" t="s">
+        <v>173</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K110" s="18" t="s">
-        <v>133</v>
+        <v>140</v>
+      </c>
+      <c r="K110" s="22" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="111" spans="7:11">
       <c r="G111" s="13"/>
-      <c r="H111" s="14" t="s">
-        <v>134</v>
+      <c r="H111" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K111" s="18" t="s">
-        <v>135</v>
+        <v>47</v>
+      </c>
+      <c r="K111" s="22" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="7:11">
       <c r="G112" s="13"/>
-      <c r="H112" s="14" t="s">
-        <v>136</v>
+      <c r="H112" s="17" t="s">
+        <v>177</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K112" s="18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="7:11">
+        <v>47</v>
+      </c>
+      <c r="K112" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11">
+      <c r="B113" t="s">
+        <v>183</v>
+      </c>
       <c r="G113" s="13"/>
-      <c r="H113" s="9" t="s">
-        <v>138</v>
+      <c r="H113" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K113" s="9" t="s">
-        <v>140</v>
+        <v>47</v>
+      </c>
+      <c r="K113" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="114" spans="7:11">
       <c r="G114" s="13"/>
-      <c r="H114" s="9" t="s">
-        <v>141</v>
+      <c r="H114" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K114" s="9" t="s">
-        <v>142</v>
+        <v>22</v>
+      </c>
+      <c r="K114" s="22" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="115" spans="7:11">
       <c r="G115" s="13"/>
-      <c r="H115" s="14" t="s">
-        <v>183</v>
+      <c r="H115" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K115" s="18" t="s">
-        <v>184</v>
+        <v>22</v>
+      </c>
+      <c r="K115" s="22" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="7:11">
       <c r="G116" s="13"/>
-      <c r="H116" s="14" t="s">
-        <v>185</v>
+      <c r="H116" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K116" s="18" t="s">
-        <v>186</v>
+        <v>140</v>
+      </c>
+      <c r="K116" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="7:11">
       <c r="G117" s="13"/>
-      <c r="H117" s="14" t="s">
-        <v>187</v>
+      <c r="H117" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K117" s="18" t="s">
-        <v>188</v>
+        <v>140</v>
+      </c>
+      <c r="K117" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="118" spans="7:11">
       <c r="G118" s="13"/>
-      <c r="H118" s="14" t="s">
-        <v>189</v>
+      <c r="H118" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K118" s="18" t="s">
-        <v>190</v>
+        <v>47</v>
+      </c>
+      <c r="K118" s="22" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="7:11">
       <c r="G119" s="13"/>
-      <c r="H119" s="14" t="s">
-        <v>191</v>
+      <c r="H119" s="17" t="s">
+        <v>186</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K119" s="18" t="s">
-        <v>192</v>
+        <v>47</v>
+      </c>
+      <c r="K119" s="22" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="7:11">
       <c r="G120" s="13"/>
-      <c r="H120" s="14" t="s">
-        <v>193</v>
+      <c r="H120" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K120" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="121" ht="15.5" spans="7:11">
+        <v>47</v>
+      </c>
+      <c r="K120" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="121" spans="7:11">
       <c r="G121" s="13"/>
-      <c r="H121" s="14" t="s">
-        <v>195</v>
+      <c r="H121" s="17" t="s">
+        <v>190</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K121" s="21" t="s">
-        <v>196</v>
+        <v>47</v>
+      </c>
+      <c r="K121" s="22" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="7:11">
       <c r="G122" s="13"/>
-      <c r="H122" s="14" t="s">
-        <v>176</v>
+      <c r="H122" s="17" t="s">
+        <v>192</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K122" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K122" s="22" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="123" spans="7:11">
+      <c r="G123" s="13"/>
+      <c r="H123" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I123" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K123" s="22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="124" ht="15.5" spans="7:11">
+      <c r="G124" s="13"/>
+      <c r="H124" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K124" s="20" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="125" spans="7:11">
+      <c r="G125" s="13"/>
+      <c r="H125" s="17" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="123" ht="15.5" spans="2:11">
-      <c r="B123" t="s">
-        <v>197</v>
-      </c>
-      <c r="H123" s="1" t="s">
+      <c r="I125" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K125" s="22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" ht="15.5" spans="2:11">
+      <c r="B126" t="s">
         <v>198</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K123" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" ht="15.5" spans="8:11">
-      <c r="H124" s="22" t="s">
+      <c r="H126" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K124" s="8" t="s">
+      <c r="I126" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="127" ht="15.5" spans="8:11">
+      <c r="H127" s="21" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="125" ht="15.5" spans="8:11">
-      <c r="H125" s="22" t="s">
+      <c r="I127" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K127" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K125" s="8" t="s">
+    </row>
+    <row r="128" ht="15.5" spans="8:11">
+      <c r="H128" s="21" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="126" ht="15.5" spans="8:11">
-      <c r="H126" s="22" t="s">
+      <c r="I128" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K128" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K126" s="8" t="s">
+    </row>
+    <row r="129" ht="15.5" spans="8:11">
+      <c r="H129" s="21" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="127" spans="8:11">
-      <c r="H127" s="1" t="s">
+      <c r="I129" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K129" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="I127" s="8" t="s">
+    </row>
+    <row r="130" spans="8:11">
+      <c r="H130" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="K127" s="1" t="s">
+      <c r="I130" s="8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="128" spans="2:11">
-      <c r="B128" t="s">
+      <c r="K130" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="H128" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I128" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K128" s="7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="129" spans="8:11">
-      <c r="H129" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K129" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="130" spans="8:11">
-      <c r="H130" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="131" spans="2:11">
       <c r="B131" t="s">
+        <v>209</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K131" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="132" spans="8:11">
+      <c r="H132" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K132" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="8:11">
+      <c r="H133" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K133" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="H131" s="9" t="s">
+    </row>
+    <row r="134" spans="2:11">
+      <c r="B134" t="s">
         <v>216</v>
       </c>
-      <c r="I131" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K131" s="9" t="s">
+      <c r="H134" s="9" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="132" spans="8:11">
-      <c r="H132" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="I132" s="4" t="s">
+      <c r="I134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K134" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="135" spans="8:11">
+      <c r="H135" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K132" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="133" spans="8:11">
-      <c r="H133" s="9" t="s">
+      <c r="I135" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K135" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="I133" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K133" s="9" t="s">
+    </row>
+    <row r="136" spans="8:11">
+      <c r="H136" s="9" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="134" spans="8:11">
-      <c r="H134" s="9" t="s">
+      <c r="I136" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K136" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="I134" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K134" s="9" t="s">
+    </row>
+    <row r="137" spans="8:11">
+      <c r="H137" s="9" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="135" spans="8:11">
-      <c r="H135" s="9" t="s">
+      <c r="I137" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K137" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="I135" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K135" s="9" t="s">
+    </row>
+    <row r="138" spans="8:11">
+      <c r="H138" s="9" t="s">
         <v>224</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K138" s="9" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ExcelConfig/Datas/__beans__.xlsx
+++ b/Doc/ExcelConfig/Datas/__beans__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="226">
   <si>
     <t>##</t>
   </si>
@@ -545,12 +545,6 @@
   </si>
   <si>
     <t>精英怪掉落池编号</t>
-  </si>
-  <si>
-    <t>spawn_buff</t>
-  </si>
-  <si>
-    <t>单位自带buff</t>
   </si>
   <si>
     <t>Dota.RoundChallengeEnemyConfigBean</t>
@@ -616,6 +610,12 @@
   </si>
   <si>
     <t>套装Id</t>
+  </si>
+  <si>
+    <t>spawn_buff</t>
+  </si>
+  <si>
+    <t>单位自带buff</t>
   </si>
   <si>
     <t>Dota.UnitStarUpConfigBean</t>
@@ -1752,10 +1752,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L138"/>
+  <dimension ref="A1:L136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A87" sqref="$A87:$XFD87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2842,10 +2842,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="87" spans="7:11">
+    <row r="87" spans="2:11">
+      <c r="B87" t="s">
+        <v>177</v>
+      </c>
       <c r="G87" s="13"/>
       <c r="H87" s="17" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>47</v>
@@ -2854,16 +2857,13 @@
         <v>178</v>
       </c>
     </row>
-    <row r="88" spans="2:11">
-      <c r="B88" t="s">
-        <v>179</v>
-      </c>
+    <row r="88" spans="7:11">
       <c r="G88" s="13"/>
       <c r="H88" s="17" t="s">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="K88" s="22" t="s">
         <v>180</v>
@@ -2872,600 +2872,576 @@
     <row r="89" spans="7:11">
       <c r="G89" s="13"/>
       <c r="H89" s="17" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K89" s="22" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
     </row>
     <row r="90" spans="7:11">
       <c r="G90" s="13"/>
       <c r="H90" s="17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="K90" s="22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="91" spans="7:11">
       <c r="G91" s="13"/>
-      <c r="H91" s="17" t="s">
-        <v>135</v>
+      <c r="H91" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="I91" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K91" s="22" t="s">
-        <v>136</v>
+      <c r="K91" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="92" spans="7:11">
       <c r="G92" s="13"/>
-      <c r="H92" s="1" t="s">
-        <v>137</v>
+      <c r="H92" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>95</v>
+      <c r="K92" s="18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="7:11">
       <c r="G93" s="13"/>
       <c r="H93" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="7:11">
       <c r="G94" s="13"/>
       <c r="H94" s="18" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="7:11">
       <c r="G95" s="13"/>
       <c r="H95" s="18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="7:11">
       <c r="G96" s="13"/>
       <c r="H96" s="18" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I96" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="7:11">
       <c r="G97" s="13"/>
       <c r="H97" s="18" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98" spans="7:11">
       <c r="G98" s="13"/>
-      <c r="H98" s="18" t="s">
-        <v>148</v>
+      <c r="H98" s="9" t="s">
+        <v>150</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K98" s="18" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="7:11">
       <c r="G99" s="13"/>
-      <c r="H99" s="9" t="s">
-        <v>150</v>
+      <c r="H99" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K99" s="9" t="s">
-        <v>152</v>
+        <v>52</v>
+      </c>
+      <c r="K99" s="18" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="7:11">
       <c r="G100" s="13"/>
-      <c r="H100" s="18" t="s">
-        <v>153</v>
+      <c r="H100" s="9" t="s">
+        <v>155</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K100" s="18" t="s">
-        <v>154</v>
+        <v>22</v>
+      </c>
+      <c r="K100" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="101" spans="7:11">
       <c r="G101" s="13"/>
-      <c r="H101" s="9" t="s">
-        <v>155</v>
+      <c r="H101" s="17" t="s">
+        <v>157</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K101" s="22" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="7:11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="5:11">
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
       <c r="G102" s="13"/>
       <c r="H102" s="17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K102" s="22" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="103" spans="5:11">
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="103" spans="8:11">
       <c r="H103" s="17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I103" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K103" s="22" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="104" spans="8:11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="7:11">
+      <c r="G104" s="13"/>
       <c r="H104" s="17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105" spans="7:11">
       <c r="G105" s="13"/>
       <c r="H105" s="17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I105" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K105" s="22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="7:11">
       <c r="G106" s="13"/>
       <c r="H106" s="17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I106" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K106" s="22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="107" spans="7:11">
       <c r="G107" s="13"/>
       <c r="H107" s="17" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K107" s="22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="108" spans="7:11">
       <c r="G108" s="13"/>
       <c r="H108" s="17" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K108" s="22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="109" spans="7:11">
       <c r="G109" s="13"/>
       <c r="H109" s="17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K109" s="22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="110" spans="7:11">
       <c r="G110" s="13"/>
       <c r="H110" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="K110" s="22" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="111" spans="7:11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="111" spans="2:11">
+      <c r="B111" t="s">
+        <v>181</v>
+      </c>
       <c r="G111" s="13"/>
       <c r="H111" s="17" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="I111" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K111" s="22" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
     </row>
     <row r="112" spans="7:11">
       <c r="G112" s="13"/>
       <c r="H112" s="17" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="K112" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="113" spans="2:11">
-      <c r="B113" t="s">
-        <v>183</v>
-      </c>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="7:11">
       <c r="G113" s="13"/>
       <c r="H113" s="17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="K113" s="22" t="s">
-        <v>134</v>
+        <v>95</v>
       </c>
     </row>
     <row r="114" spans="7:11">
       <c r="G114" s="13"/>
-      <c r="H114" s="17" t="s">
-        <v>135</v>
+      <c r="H114" s="9" t="s">
+        <v>139</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K114" s="22" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="K114" s="9" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="115" spans="7:11">
       <c r="G115" s="13"/>
-      <c r="H115" s="17" t="s">
-        <v>137</v>
+      <c r="H115" s="9" t="s">
+        <v>142</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K115" s="22" t="s">
-        <v>95</v>
+        <v>140</v>
+      </c>
+      <c r="K115" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="116" spans="7:11">
       <c r="G116" s="13"/>
-      <c r="H116" s="9" t="s">
-        <v>139</v>
+      <c r="H116" s="17" t="s">
+        <v>182</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K116" s="9" t="s">
-        <v>141</v>
+        <v>47</v>
+      </c>
+      <c r="K116" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="7:11">
       <c r="G117" s="13"/>
-      <c r="H117" s="9" t="s">
-        <v>142</v>
+      <c r="H117" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K117" s="9" t="s">
-        <v>143</v>
+        <v>47</v>
+      </c>
+      <c r="K117" s="22" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="118" spans="7:11">
       <c r="G118" s="13"/>
       <c r="H118" s="17" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I118" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K118" s="22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="119" spans="7:11">
       <c r="G119" s="13"/>
       <c r="H119" s="17" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K119" s="22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="120" spans="7:11">
       <c r="G120" s="13"/>
       <c r="H120" s="17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="I120" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K120" s="22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="7:11">
       <c r="G121" s="13"/>
       <c r="H121" s="17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I121" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K121" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="122" spans="7:11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" ht="15.5" spans="7:11">
       <c r="G122" s="13"/>
       <c r="H122" s="17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="I122" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K122" s="22" t="s">
-        <v>193</v>
+      <c r="K122" s="20" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="123" spans="7:11">
       <c r="G123" s="13"/>
       <c r="H123" s="17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="I123" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K123" s="22" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="124" ht="15.5" spans="7:11">
-      <c r="G124" s="13"/>
-      <c r="H124" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="124" ht="15.5" spans="2:11">
+      <c r="B124" t="s">
+        <v>198</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K124" s="20" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="125" spans="7:11">
-      <c r="G125" s="13"/>
-      <c r="H125" s="17" t="s">
-        <v>177</v>
+        <v>22</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="125" ht="15.5" spans="8:11">
+      <c r="H125" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K125" s="22" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="126" ht="15.5" spans="2:11">
-      <c r="B126" t="s">
-        <v>198</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>199</v>
+        <v>140</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="126" ht="15.5" spans="8:11">
+      <c r="H126" s="21" t="s">
+        <v>202</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K126" s="12" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="127" ht="15.5" spans="8:11">
       <c r="H127" s="21" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I127" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K127" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="128" ht="15.5" spans="8:11">
-      <c r="H128" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="I128" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K128" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="129" ht="15.5" spans="8:11">
-      <c r="H129" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="I129" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="K129" s="8" t="s">
         <v>205</v>
       </c>
     </row>
+    <row r="128" spans="8:11">
+      <c r="H128" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11">
+      <c r="B129" t="s">
+        <v>209</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K129" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
     <row r="130" spans="8:11">
-      <c r="H130" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="I130" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="131" spans="2:11">
-      <c r="B131" t="s">
-        <v>209</v>
-      </c>
-      <c r="H131" s="8" t="s">
-        <v>210</v>
+      <c r="H130" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K130" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="131" spans="8:11">
+      <c r="H131" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K131" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="132" spans="8:11">
-      <c r="H132" s="5" t="s">
-        <v>212</v>
+        <v>47</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11">
+      <c r="B132" t="s">
+        <v>216</v>
+      </c>
+      <c r="H132" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K132" s="7" t="s">
-        <v>213</v>
+        <v>22</v>
+      </c>
+      <c r="K132" s="9" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="133" spans="8:11">
-      <c r="H133" s="5" t="s">
-        <v>214</v>
+      <c r="H133" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K133" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11">
-      <c r="B134" t="s">
-        <v>216</v>
-      </c>
+      <c r="K133" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="134" spans="8:11">
       <c r="H134" s="9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="I134" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="135" spans="8:11">
-      <c r="H135" s="7" t="s">
-        <v>46</v>
+      <c r="H135" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K135" s="8" t="s">
-        <v>219</v>
+        <v>22</v>
+      </c>
+      <c r="K135" s="9" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="136" spans="8:11">
       <c r="H136" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I136" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="137" spans="8:11">
-      <c r="H137" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="I137" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K137" s="9" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="138" spans="8:11">
-      <c r="H138" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="I138" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K138" s="9" t="s">
         <v>225</v>
       </c>
     </row>
